--- a/Document/My Ais/T9/T9_Prod_MyAIS_APP_3PO_EN.xlsx
+++ b/Document/My Ais/T9/T9_Prod_MyAIS_APP_3PO_EN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1995" windowWidth="20115" windowHeight="6075" tabRatio="879" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="1995" windowWidth="20115" windowHeight="6075" tabRatio="879" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="2270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="2271">
   <si>
     <t>ADVANCE INFO SERVICE (AIS)</t>
   </si>
@@ -19421,58 +19421,6 @@
 - สามารถคลิ๊กเมนู "Your Balance" และ redirect ได้</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. เปิดApp myAIS 
-2. Login ผ่าน 3G/4G หรือกดรับ OTP
-3. กด "OK" 
-4. คลิกไอคอน Quick Menu
-5. คลิกไอคอน "Search"
-6. เลื่อนมาที่ตัวอักษร "Y" 
-7. คลิ๊กเมนู สมัคร Your Balance
-8. ตรวจสอบหน้า Your Balance </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>[1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-9. Capture screen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>[1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> verify
-- Your balance</t>
-    </r>
-  </si>
-  <si>
     <t>ตรวจสอบ
 - สามารถคลิ๊กเมนู "Your Credit/Debit Card" และ redirect ได้</t>
   </si>
@@ -31615,6 +31563,99 @@
      - Roaming Service Rates
      - International Service
 4. Capture screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">N-Type Number : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3PO </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Status :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Active</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. เปิดApp myAIS 
+2. Login ผ่าน 3G/4G หรือกดรับ OTP
+3. กด "OK" 
+4. คลิกไอคอน Quick Menu
+5. คลิกไอคอน "Search"
+6. เลื่อนมาที่ตัวอักษร "Y" 
+7. คลิ๊กเมนู สมัคร Your Balance History
+8. ตรวจสอบหน้า Your Balance History </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+9. Capture screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> verify
+- Your Balance History</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -34736,74 +34777,6 @@
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -34885,6 +34858,22 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -34897,24 +34886,118 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -34928,29 +35011,11 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -34979,58 +35044,25 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -35051,6 +35083,15 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -35061,33 +35102,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="25" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="40" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="61" fillId="25" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="63" fillId="26" borderId="48" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="46" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="28" borderId="48" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="63" fillId="26" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="44" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="25" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="25" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="63" fillId="27" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="46" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="61" fillId="25" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="25" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="26" borderId="48" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="28" borderId="48" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -39712,25 +39753,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="579" t="s">
+      <c r="C5" s="607" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="580"/>
-      <c r="E5" s="581"/>
+      <c r="D5" s="608"/>
+      <c r="E5" s="609"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="571"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="571"/>
+      <c r="H5" s="605"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="605"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="602"/>
-      <c r="E6" s="603"/>
+      <c r="C6" s="581"/>
+      <c r="D6" s="582"/>
+      <c r="E6" s="583"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -39740,23 +39781,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="582"/>
-      <c r="D7" s="583"/>
-      <c r="E7" s="584"/>
+      <c r="C7" s="610"/>
+      <c r="D7" s="611"/>
+      <c r="E7" s="612"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="571"/>
-      <c r="I7" s="571"/>
-      <c r="J7" s="571"/>
+      <c r="H7" s="605"/>
+      <c r="I7" s="605"/>
+      <c r="J7" s="605"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="585" t="s">
+      <c r="C8" s="613" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="586"/>
-      <c r="E8" s="587"/>
+      <c r="D8" s="614"/>
+      <c r="E8" s="615"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -39779,58 +39820,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="572" t="s">
+      <c r="B11" s="599" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="573"/>
-      <c r="D11" s="574"/>
-      <c r="E11" s="574"/>
-      <c r="F11" s="575"/>
+      <c r="C11" s="600"/>
+      <c r="D11" s="606"/>
+      <c r="E11" s="606"/>
+      <c r="F11" s="601"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="576"/>
-      <c r="D12" s="577"/>
-      <c r="E12" s="577"/>
-      <c r="F12" s="578"/>
+      <c r="C12" s="592"/>
+      <c r="D12" s="594"/>
+      <c r="E12" s="594"/>
+      <c r="F12" s="595"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="576"/>
-      <c r="D13" s="577"/>
-      <c r="E13" s="577"/>
-      <c r="F13" s="578"/>
+      <c r="C13" s="592"/>
+      <c r="D13" s="594"/>
+      <c r="E13" s="594"/>
+      <c r="F13" s="595"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="576"/>
-      <c r="D14" s="577"/>
-      <c r="E14" s="577"/>
-      <c r="F14" s="578"/>
+      <c r="C14" s="592"/>
+      <c r="D14" s="594"/>
+      <c r="E14" s="594"/>
+      <c r="F14" s="595"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="576"/>
-      <c r="D15" s="577"/>
-      <c r="E15" s="577"/>
-      <c r="F15" s="578"/>
+      <c r="C15" s="592"/>
+      <c r="D15" s="594"/>
+      <c r="E15" s="594"/>
+      <c r="F15" s="595"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="612"/>
-      <c r="D16" s="613"/>
-      <c r="E16" s="613"/>
-      <c r="F16" s="614"/>
+      <c r="C16" s="596"/>
+      <c r="D16" s="597"/>
+      <c r="E16" s="597"/>
+      <c r="F16" s="598"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -39840,13 +39881,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="572" t="s">
+      <c r="B18" s="599" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="573"/>
-      <c r="D18" s="573"/>
-      <c r="E18" s="573"/>
-      <c r="F18" s="575"/>
+      <c r="C18" s="600"/>
+      <c r="D18" s="600"/>
+      <c r="E18" s="600"/>
+      <c r="F18" s="601"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -39858,10 +39899,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="607" t="s">
+      <c r="E19" s="587" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="615"/>
+      <c r="F19" s="602"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -39873,10 +39914,10 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="576" t="s">
+      <c r="E20" s="592" t="s">
         <v>242</v>
       </c>
-      <c r="F20" s="588"/>
+      <c r="F20" s="593"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
@@ -39886,10 +39927,10 @@
         <v>333</v>
       </c>
       <c r="D21" s="18"/>
-      <c r="E21" s="576" t="s">
+      <c r="E21" s="592" t="s">
         <v>334</v>
       </c>
-      <c r="F21" s="588"/>
+      <c r="F21" s="593"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16" t="s">
@@ -39899,10 +39940,10 @@
         <v>345</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="576" t="s">
+      <c r="E22" s="592" t="s">
         <v>344</v>
       </c>
-      <c r="F22" s="588"/>
+      <c r="F22" s="593"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
@@ -39912,52 +39953,52 @@
         <v>408</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="576" t="s">
+      <c r="E23" s="592" t="s">
         <v>413</v>
       </c>
-      <c r="F23" s="588"/>
+      <c r="F23" s="593"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="576"/>
-      <c r="F24" s="588"/>
+      <c r="E24" s="592"/>
+      <c r="F24" s="593"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="576"/>
-      <c r="F25" s="588"/>
+      <c r="E25" s="592"/>
+      <c r="F25" s="593"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="576"/>
-      <c r="F26" s="588"/>
+      <c r="E26" s="592"/>
+      <c r="F26" s="593"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="576"/>
-      <c r="F27" s="588"/>
+      <c r="E27" s="592"/>
+      <c r="F27" s="593"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="576"/>
-      <c r="F28" s="588"/>
+      <c r="E28" s="592"/>
+      <c r="F28" s="593"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="589"/>
-      <c r="F29" s="590"/>
+      <c r="E29" s="603"/>
+      <c r="F29" s="604"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -39967,67 +40008,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="604" t="s">
+      <c r="B31" s="584" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="605"/>
-      <c r="D31" s="605"/>
-      <c r="E31" s="606"/>
+      <c r="C31" s="585"/>
+      <c r="D31" s="585"/>
+      <c r="E31" s="586"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="607" t="s">
+      <c r="C32" s="587" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="608"/>
-      <c r="E32" s="608"/>
+      <c r="D32" s="588"/>
+      <c r="E32" s="588"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="593"/>
-      <c r="D33" s="594"/>
-      <c r="E33" s="594"/>
+      <c r="C33" s="573"/>
+      <c r="D33" s="574"/>
+      <c r="E33" s="574"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="609"/>
-      <c r="D34" s="610"/>
-      <c r="E34" s="611"/>
+      <c r="C34" s="589"/>
+      <c r="D34" s="590"/>
+      <c r="E34" s="591"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="591"/>
-      <c r="D35" s="592"/>
-      <c r="E35" s="592"/>
+      <c r="C35" s="571"/>
+      <c r="D35" s="572"/>
+      <c r="E35" s="572"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="593"/>
-      <c r="D36" s="594"/>
-      <c r="E36" s="594"/>
+      <c r="C36" s="573"/>
+      <c r="D36" s="574"/>
+      <c r="E36" s="574"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="595"/>
-      <c r="D37" s="596"/>
-      <c r="E37" s="597"/>
+      <c r="C37" s="575"/>
+      <c r="D37" s="576"/>
+      <c r="E37" s="577"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="598"/>
-      <c r="D38" s="599"/>
-      <c r="E38" s="600"/>
+      <c r="C38" s="578"/>
+      <c r="D38" s="579"/>
+      <c r="E38" s="580"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40053,6 +40094,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -40069,22 +40126,6 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40203,7 +40244,7 @@
     </row>
     <row r="5" spans="1:12" s="250" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="269" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B5" s="57" t="s">
         <v>744</v>
@@ -40224,7 +40265,7 @@
     </row>
     <row r="6" spans="1:12" s="250" customFormat="1" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="269" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B6" s="57" t="s">
         <v>747</v>
@@ -40245,7 +40286,7 @@
     </row>
     <row r="7" spans="1:12" s="250" customFormat="1" ht="241.5" x14ac:dyDescent="0.2">
       <c r="A7" s="269" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>749</v>
@@ -40266,7 +40307,7 @@
     </row>
     <row r="8" spans="1:12" s="250" customFormat="1" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="269" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B8" s="57" t="s">
         <v>751</v>
@@ -40881,16 +40922,16 @@
     </row>
     <row r="38" spans="1:11" s="250" customFormat="1" ht="73.5" x14ac:dyDescent="0.2">
       <c r="A38" s="269" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B38" s="246" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C38" s="57" t="s">
         <v>202</v>
       </c>
       <c r="D38" s="251" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E38" s="251"/>
       <c r="F38" s="253"/>
@@ -40926,7 +40967,7 @@
         <v>202</v>
       </c>
       <c r="D40" s="247" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E40" s="247"/>
       <c r="F40" s="253"/>
@@ -41109,13 +41150,13 @@
         <v>888</v>
       </c>
       <c r="B49" s="246" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="C49" s="55" t="s">
         <v>202</v>
       </c>
       <c r="D49" s="260" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="E49" s="260"/>
       <c r="F49" s="253"/>
@@ -41169,16 +41210,16 @@
     </row>
     <row r="52" spans="1:11" s="484" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="480" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="B52" s="477" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="C52" s="481" t="s">
         <v>202</v>
       </c>
       <c r="D52" s="482" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="E52" s="482"/>
       <c r="F52" s="483"/>
@@ -41214,7 +41255,7 @@
         <v>202</v>
       </c>
       <c r="D54" s="477" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="E54" s="251"/>
       <c r="F54" s="253"/>
@@ -41235,7 +41276,7 @@
         <v>202</v>
       </c>
       <c r="D55" s="477" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="E55" s="251"/>
       <c r="F55" s="253"/>
@@ -41256,7 +41297,7 @@
         <v>202</v>
       </c>
       <c r="D56" s="477" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="E56" s="251"/>
       <c r="F56" s="253"/>
@@ -41283,19 +41324,19 @@
     </row>
     <row r="58" spans="1:11" s="250" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A58" s="399" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B58" s="246" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C58" s="118" t="s">
         <v>202</v>
       </c>
       <c r="D58" s="246" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="E58" s="400" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="F58" s="249"/>
       <c r="G58" s="249"/>
@@ -41306,7 +41347,7 @@
     </row>
     <row r="59" spans="1:11" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A59" s="269" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B59" s="57" t="s">
         <v>833</v>
@@ -41327,7 +41368,7 @@
     </row>
     <row r="60" spans="1:11" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A60" s="269" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B60" s="57" t="s">
         <v>835</v>
@@ -41348,7 +41389,7 @@
     </row>
     <row r="61" spans="1:11" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A61" s="269" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B61" s="57" t="s">
         <v>837</v>
@@ -41369,7 +41410,7 @@
     </row>
     <row r="62" spans="1:11" ht="168" x14ac:dyDescent="0.2">
       <c r="A62" s="269" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B62" s="57" t="s">
         <v>839</v>
@@ -41405,19 +41446,19 @@
     </row>
     <row r="64" spans="1:11" s="250" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A64" s="269" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B64" s="246" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C64" s="118" t="s">
         <v>201</v>
       </c>
       <c r="D64" s="246" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E64" s="400" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="F64" s="249"/>
       <c r="G64" s="249"/>
@@ -41428,7 +41469,7 @@
     </row>
     <row r="65" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A65" s="269" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B65" s="57" t="s">
         <v>843</v>
@@ -41449,7 +41490,7 @@
     </row>
     <row r="66" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A66" s="269" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B66" s="57" t="s">
         <v>846</v>
@@ -41470,7 +41511,7 @@
     </row>
     <row r="67" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A67" s="269" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B67" s="57" t="s">
         <v>848</v>
@@ -41491,7 +41532,7 @@
     </row>
     <row r="68" spans="1:12" ht="168" x14ac:dyDescent="0.2">
       <c r="A68" s="269" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B68" s="57" t="s">
         <v>850</v>
@@ -41512,7 +41553,7 @@
     </row>
     <row r="69" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="266" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B69" s="267"/>
       <c r="C69" s="267"/>
@@ -41528,7 +41569,7 @@
     </row>
     <row r="70" spans="1:12" s="453" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="448" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B70" s="449"/>
       <c r="C70" s="449"/>
@@ -41544,19 +41585,19 @@
     </row>
     <row r="71" spans="1:12" s="535" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="531" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B71" s="532" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C71" s="532" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D71" s="532" t="s">
         <v>1553</v>
       </c>
-      <c r="C71" s="532" t="s">
+      <c r="E71" s="532" t="s">
         <v>1554</v>
-      </c>
-      <c r="D71" s="532" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E71" s="532" t="s">
-        <v>1556</v>
       </c>
       <c r="F71" s="532"/>
       <c r="G71" s="532"/>
@@ -41568,19 +41609,19 @@
     </row>
     <row r="72" spans="1:12" s="535" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="531" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B72" s="532" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C72" s="532" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D72" s="532" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E72" s="532" t="s">
         <v>1557</v>
-      </c>
-      <c r="C72" s="532" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D72" s="532" t="s">
-        <v>1558</v>
-      </c>
-      <c r="E72" s="532" t="s">
-        <v>1559</v>
       </c>
       <c r="F72" s="532"/>
       <c r="G72" s="532"/>
@@ -41592,7 +41633,7 @@
     </row>
     <row r="73" spans="1:12" s="461" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="457" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B73" s="458"/>
       <c r="C73" s="458"/>
@@ -41608,19 +41649,19 @@
     </row>
     <row r="74" spans="1:12" s="537" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="531" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="B74" s="532" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C74" s="532" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D74" s="532" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E74" s="532" t="s">
         <v>1561</v>
-      </c>
-      <c r="C74" s="532" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D74" s="532" t="s">
-        <v>1562</v>
-      </c>
-      <c r="E74" s="532" t="s">
-        <v>1563</v>
       </c>
       <c r="F74" s="532"/>
       <c r="G74" s="532"/>
@@ -41632,19 +41673,19 @@
     </row>
     <row r="75" spans="1:12" s="537" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="531" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B75" s="532" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C75" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D75" s="532" t="s">
         <v>1564</v>
       </c>
-      <c r="C75" s="532" t="s">
+      <c r="E75" s="532" t="s">
         <v>1565</v>
-      </c>
-      <c r="D75" s="532" t="s">
-        <v>1566</v>
-      </c>
-      <c r="E75" s="532" t="s">
-        <v>1567</v>
       </c>
       <c r="F75" s="532"/>
       <c r="G75" s="532"/>
@@ -41656,19 +41697,19 @@
     </row>
     <row r="76" spans="1:12" s="537" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="531" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B76" s="532" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C76" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D76" s="532" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E76" s="532" t="s">
         <v>1568</v>
-      </c>
-      <c r="C76" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D76" s="532" t="s">
-        <v>1569</v>
-      </c>
-      <c r="E76" s="532" t="s">
-        <v>1570</v>
       </c>
       <c r="F76" s="532"/>
       <c r="G76" s="532"/>
@@ -41680,19 +41721,19 @@
     </row>
     <row r="77" spans="1:12" s="537" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="531" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="B77" s="532" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C77" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D77" s="532" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E77" s="532" t="s">
         <v>1571</v>
-      </c>
-      <c r="C77" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D77" s="532" t="s">
-        <v>1572</v>
-      </c>
-      <c r="E77" s="532" t="s">
-        <v>1573</v>
       </c>
       <c r="F77" s="532"/>
       <c r="G77" s="532"/>
@@ -41704,7 +41745,7 @@
     </row>
     <row r="78" spans="1:12" s="466" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="462" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B78" s="463"/>
       <c r="C78" s="463"/>
@@ -41720,19 +41761,19 @@
     </row>
     <row r="79" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="531" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="B79" s="532" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C79" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D79" s="532" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E79" s="532" t="s">
         <v>1575</v>
-      </c>
-      <c r="C79" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D79" s="532" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E79" s="532" t="s">
-        <v>1577</v>
       </c>
       <c r="F79" s="532"/>
       <c r="G79" s="532"/>
@@ -41744,19 +41785,19 @@
     </row>
     <row r="80" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="531" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="B80" s="532" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C80" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D80" s="532" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E80" s="532" t="s">
         <v>1578</v>
-      </c>
-      <c r="C80" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D80" s="532" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E80" s="532" t="s">
-        <v>1580</v>
       </c>
       <c r="F80" s="532"/>
       <c r="G80" s="532"/>
@@ -41768,19 +41809,19 @@
     </row>
     <row r="81" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="531" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="B81" s="539" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C81" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D81" s="532" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E81" s="532" t="s">
         <v>1581</v>
-      </c>
-      <c r="C81" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D81" s="532" t="s">
-        <v>1582</v>
-      </c>
-      <c r="E81" s="532" t="s">
-        <v>1583</v>
       </c>
       <c r="F81" s="532"/>
       <c r="G81" s="532"/>
@@ -41792,19 +41833,19 @@
     </row>
     <row r="82" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="531" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="B82" s="532" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C82" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D82" s="532" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E82" s="532" t="s">
         <v>1584</v>
-      </c>
-      <c r="C82" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D82" s="532" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E82" s="532" t="s">
-        <v>1586</v>
       </c>
       <c r="F82" s="532"/>
       <c r="G82" s="532"/>
@@ -41816,7 +41857,7 @@
     </row>
     <row r="83" spans="1:12" s="466" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="462" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B83" s="463"/>
       <c r="C83" s="463"/>
@@ -41832,19 +41873,19 @@
     </row>
     <row r="84" spans="1:12" s="538" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="531" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="B84" s="532" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C84" s="532" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D84" s="532" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="E84" s="532" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="F84" s="532"/>
       <c r="G84" s="532"/>
@@ -41856,19 +41897,19 @@
     </row>
     <row r="85" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="531" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="B85" s="532" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C85" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D85" s="532" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E85" s="532" t="s">
         <v>1590</v>
-      </c>
-      <c r="C85" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D85" s="532" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E85" s="532" t="s">
-        <v>1592</v>
       </c>
       <c r="F85" s="532"/>
       <c r="G85" s="532"/>
@@ -41880,19 +41921,19 @@
     </row>
     <row r="86" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="531" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="B86" s="532" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C86" s="532" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D86" s="532" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="E86" s="532" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="F86" s="532"/>
       <c r="G86" s="532"/>
@@ -41904,19 +41945,19 @@
     </row>
     <row r="87" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="531" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="B87" s="532" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C87" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D87" s="532" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E87" s="532" t="s">
         <v>1595</v>
-      </c>
-      <c r="C87" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D87" s="532" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E87" s="532" t="s">
-        <v>1597</v>
       </c>
       <c r="F87" s="532"/>
       <c r="G87" s="532"/>
@@ -41928,19 +41969,19 @@
     </row>
     <row r="88" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="531" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B88" s="532" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C88" s="532" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D88" s="532" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="E88" s="532" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="F88" s="532"/>
       <c r="G88" s="532"/>
@@ -41952,19 +41993,19 @@
     </row>
     <row r="89" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="531" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="B89" s="532" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C89" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D89" s="532" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E89" s="532" t="s">
         <v>1600</v>
-      </c>
-      <c r="C89" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D89" s="532" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E89" s="532" t="s">
-        <v>1602</v>
       </c>
       <c r="F89" s="532"/>
       <c r="G89" s="532"/>
@@ -41976,19 +42017,19 @@
     </row>
     <row r="90" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="531" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B90" s="532" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C90" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D90" s="532" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E90" s="532" t="s">
         <v>1603</v>
-      </c>
-      <c r="C90" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D90" s="532" t="s">
-        <v>1604</v>
-      </c>
-      <c r="E90" s="532" t="s">
-        <v>1605</v>
       </c>
       <c r="F90" s="532"/>
       <c r="G90" s="532"/>
@@ -42000,19 +42041,19 @@
     </row>
     <row r="91" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="531" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="B91" s="532" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C91" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D91" s="532" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E91" s="532" t="s">
         <v>1606</v>
-      </c>
-      <c r="C91" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D91" s="532" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E91" s="532" t="s">
-        <v>1608</v>
       </c>
       <c r="F91" s="532"/>
       <c r="G91" s="532"/>
@@ -42024,19 +42065,19 @@
     </row>
     <row r="92" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="531" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B92" s="532" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C92" s="532" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D92" s="532" t="s">
         <v>1609</v>
       </c>
-      <c r="C92" s="532" t="s">
+      <c r="E92" s="532" t="s">
         <v>1610</v>
-      </c>
-      <c r="D92" s="532" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E92" s="532" t="s">
-        <v>1612</v>
       </c>
       <c r="F92" s="532"/>
       <c r="G92" s="532"/>
@@ -42048,305 +42089,305 @@
     </row>
     <row r="93" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="531" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="B93" s="532" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C93" s="532" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D93" s="532" t="s">
         <v>1613</v>
       </c>
-      <c r="C93" s="532" t="s">
+      <c r="E93" s="532" t="s">
         <v>1614</v>
-      </c>
-      <c r="D93" s="532" t="s">
-        <v>1615</v>
-      </c>
-      <c r="E93" s="532" t="s">
-        <v>1616</v>
       </c>
       <c r="F93" s="532"/>
       <c r="G93" s="532"/>
       <c r="H93" s="532"/>
       <c r="I93" s="532"/>
       <c r="J93" s="533" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K93" s="532"/>
       <c r="L93" s="540"/>
     </row>
     <row r="94" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="531" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B94" s="532" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C94" s="532" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D94" s="532" t="s">
         <v>1618</v>
       </c>
-      <c r="C94" s="532" t="s">
+      <c r="E94" s="532" t="s">
         <v>1619</v>
-      </c>
-      <c r="D94" s="532" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E94" s="532" t="s">
-        <v>1621</v>
       </c>
       <c r="F94" s="532"/>
       <c r="G94" s="532"/>
       <c r="H94" s="532"/>
       <c r="I94" s="532"/>
       <c r="J94" s="533" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K94" s="532"/>
       <c r="L94" s="540"/>
     </row>
     <row r="95" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="531" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B95" s="532" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C95" s="532" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D95" s="532" t="s">
         <v>1622</v>
       </c>
-      <c r="C95" s="532" t="s">
+      <c r="E95" s="532" t="s">
         <v>1623</v>
-      </c>
-      <c r="D95" s="532" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E95" s="532" t="s">
-        <v>1625</v>
       </c>
       <c r="F95" s="532"/>
       <c r="G95" s="532"/>
       <c r="H95" s="532"/>
       <c r="I95" s="532"/>
       <c r="J95" s="533" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K95" s="532"/>
       <c r="L95" s="540"/>
     </row>
     <row r="96" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="531" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B96" s="532" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C96" s="532" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D96" s="532" t="s">
         <v>1626</v>
       </c>
-      <c r="C96" s="532" t="s">
+      <c r="E96" s="532" t="s">
         <v>1627</v>
-      </c>
-      <c r="D96" s="532" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E96" s="532" t="s">
-        <v>1629</v>
       </c>
       <c r="F96" s="532"/>
       <c r="G96" s="532"/>
       <c r="H96" s="532"/>
       <c r="I96" s="532"/>
       <c r="J96" s="533" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K96" s="532"/>
       <c r="L96" s="540"/>
     </row>
     <row r="97" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="531" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="B97" s="532" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C97" s="532" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D97" s="532" t="s">
         <v>1630</v>
       </c>
-      <c r="C97" s="532" t="s">
+      <c r="E97" s="532" t="s">
         <v>1631</v>
-      </c>
-      <c r="D97" s="532" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E97" s="532" t="s">
-        <v>1633</v>
       </c>
       <c r="F97" s="532"/>
       <c r="G97" s="532"/>
       <c r="H97" s="532"/>
       <c r="I97" s="532"/>
       <c r="J97" s="533" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K97" s="532"/>
       <c r="L97" s="540"/>
     </row>
     <row r="98" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="531" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B98" s="532" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C98" s="532" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D98" s="532" t="s">
         <v>1634</v>
       </c>
-      <c r="C98" s="532" t="s">
+      <c r="E98" s="532" t="s">
         <v>1635</v>
-      </c>
-      <c r="D98" s="532" t="s">
-        <v>1636</v>
-      </c>
-      <c r="E98" s="532" t="s">
-        <v>1637</v>
       </c>
       <c r="F98" s="532"/>
       <c r="G98" s="532"/>
       <c r="H98" s="532"/>
       <c r="I98" s="532"/>
       <c r="J98" s="533" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K98" s="532"/>
       <c r="L98" s="540"/>
     </row>
     <row r="99" spans="1:12" s="544" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="528" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B99" s="529" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C99" s="529" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D99" s="529" t="s">
         <v>1638</v>
       </c>
-      <c r="C99" s="529" t="s">
+      <c r="E99" s="529" t="s">
         <v>1639</v>
-      </c>
-      <c r="D99" s="529" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E99" s="529" t="s">
-        <v>1641</v>
       </c>
       <c r="F99" s="529"/>
       <c r="G99" s="529"/>
       <c r="H99" s="529"/>
       <c r="I99" s="529"/>
       <c r="J99" s="530" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K99" s="529"/>
       <c r="L99" s="543"/>
     </row>
     <row r="100" spans="1:12" s="544" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="528" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B100" s="529" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C100" s="529" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D100" s="529" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E100" s="529" t="s">
         <v>1642</v>
-      </c>
-      <c r="C100" s="529" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D100" s="529" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E100" s="529" t="s">
-        <v>1644</v>
       </c>
       <c r="F100" s="529"/>
       <c r="G100" s="529"/>
       <c r="H100" s="529"/>
       <c r="I100" s="529"/>
       <c r="J100" s="530" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K100" s="529"/>
       <c r="L100" s="543"/>
     </row>
     <row r="101" spans="1:12" s="546" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="528" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B101" s="529" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C101" s="529" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D101" s="529" t="s">
         <v>1645</v>
       </c>
-      <c r="C101" s="529" t="s">
+      <c r="E101" s="529" t="s">
         <v>1646</v>
-      </c>
-      <c r="D101" s="529" t="s">
-        <v>1647</v>
-      </c>
-      <c r="E101" s="529" t="s">
-        <v>1648</v>
       </c>
       <c r="F101" s="529"/>
       <c r="G101" s="529"/>
       <c r="H101" s="529"/>
       <c r="I101" s="529"/>
       <c r="J101" s="530" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K101" s="529"/>
       <c r="L101" s="545"/>
     </row>
     <row r="102" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="531" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B102" s="532" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C102" s="532" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D102" s="532" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E102" s="532" t="s">
         <v>1649</v>
-      </c>
-      <c r="C102" s="532" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D102" s="532" t="s">
-        <v>1650</v>
-      </c>
-      <c r="E102" s="532" t="s">
-        <v>1651</v>
       </c>
       <c r="F102" s="532"/>
       <c r="G102" s="532"/>
       <c r="H102" s="532"/>
       <c r="I102" s="532"/>
       <c r="J102" s="533" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K102" s="532"/>
       <c r="L102" s="540"/>
     </row>
     <row r="103" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="531" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B103" s="532" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C103" s="532" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D103" s="532" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E103" s="532" t="s">
         <v>1652</v>
-      </c>
-      <c r="C103" s="532" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D103" s="532" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E103" s="532" t="s">
-        <v>1654</v>
       </c>
       <c r="F103" s="532"/>
       <c r="G103" s="532"/>
       <c r="H103" s="532"/>
       <c r="I103" s="532"/>
       <c r="J103" s="533" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K103" s="532"/>
       <c r="L103" s="540"/>
     </row>
     <row r="104" spans="1:12" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="531" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B104" s="532" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C104" s="532" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D104" s="532" t="s">
         <v>1655</v>
       </c>
-      <c r="C104" s="532" t="s">
+      <c r="E104" s="532" t="s">
         <v>1656</v>
-      </c>
-      <c r="D104" s="532" t="s">
-        <v>1657</v>
-      </c>
-      <c r="E104" s="532" t="s">
-        <v>1658</v>
       </c>
       <c r="F104" s="532"/>
       <c r="G104" s="532"/>
@@ -42358,19 +42399,19 @@
     </row>
     <row r="105" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="454" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B105" s="455" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C105" s="455" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D105" s="455" t="s">
         <v>1659</v>
       </c>
-      <c r="C105" s="455" t="s">
+      <c r="E105" s="455" t="s">
         <v>1660</v>
-      </c>
-      <c r="D105" s="455" t="s">
-        <v>1661</v>
-      </c>
-      <c r="E105" s="455" t="s">
-        <v>1662</v>
       </c>
       <c r="F105" s="455"/>
       <c r="G105" s="455"/>
@@ -42382,19 +42423,19 @@
     </row>
     <row r="106" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="454" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B106" s="455" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C106" s="455" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D106" s="455" t="s">
         <v>1663</v>
       </c>
-      <c r="C106" s="455" t="s">
+      <c r="E106" s="455" t="s">
         <v>1664</v>
-      </c>
-      <c r="D106" s="455" t="s">
-        <v>1665</v>
-      </c>
-      <c r="E106" s="455" t="s">
-        <v>1666</v>
       </c>
       <c r="F106" s="455"/>
       <c r="G106" s="455"/>
@@ -42406,19 +42447,19 @@
     </row>
     <row r="107" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="454" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="B107" s="455" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C107" s="455" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D107" s="455" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E107" s="455" t="s">
         <v>1667</v>
-      </c>
-      <c r="C107" s="455" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D107" s="455" t="s">
-        <v>1668</v>
-      </c>
-      <c r="E107" s="455" t="s">
-        <v>1669</v>
       </c>
       <c r="F107" s="455"/>
       <c r="G107" s="455"/>
@@ -42430,19 +42471,19 @@
     </row>
     <row r="108" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="454" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B108" s="455" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C108" s="455" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D108" s="455" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E108" s="455" t="s">
         <v>1670</v>
-      </c>
-      <c r="C108" s="455" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D108" s="455" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E108" s="455" t="s">
-        <v>1672</v>
       </c>
       <c r="F108" s="455"/>
       <c r="G108" s="455"/>
@@ -42454,331 +42495,331 @@
     </row>
     <row r="109" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="454" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="B109" s="455" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C109" s="455" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D109" s="455" t="s">
         <v>1673</v>
       </c>
-      <c r="C109" s="455" t="s">
+      <c r="E109" s="455" t="s">
         <v>1674</v>
-      </c>
-      <c r="D109" s="455" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E109" s="455" t="s">
-        <v>1676</v>
       </c>
       <c r="F109" s="455"/>
       <c r="G109" s="455"/>
       <c r="H109" s="455"/>
       <c r="I109" s="455"/>
       <c r="J109" s="456" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K109" s="455"/>
       <c r="L109" s="468"/>
     </row>
     <row r="110" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="454" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="B110" s="455" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C110" s="455" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D110" s="455" t="s">
         <v>1677</v>
       </c>
-      <c r="C110" s="455" t="s">
+      <c r="E110" s="455" t="s">
         <v>1678</v>
-      </c>
-      <c r="D110" s="455" t="s">
-        <v>1679</v>
-      </c>
-      <c r="E110" s="455" t="s">
-        <v>1680</v>
       </c>
       <c r="F110" s="455"/>
       <c r="G110" s="455"/>
       <c r="H110" s="455"/>
       <c r="I110" s="455"/>
       <c r="J110" s="456" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K110" s="455"/>
       <c r="L110" s="468"/>
     </row>
     <row r="111" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="454" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B111" s="455" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C111" s="455" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D111" s="455" t="s">
         <v>1681</v>
       </c>
-      <c r="C111" s="455" t="s">
+      <c r="E111" s="455" t="s">
         <v>1682</v>
-      </c>
-      <c r="D111" s="455" t="s">
-        <v>1683</v>
-      </c>
-      <c r="E111" s="455" t="s">
-        <v>1684</v>
       </c>
       <c r="F111" s="455"/>
       <c r="G111" s="455"/>
       <c r="H111" s="455"/>
       <c r="I111" s="455"/>
       <c r="J111" s="456" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K111" s="455"/>
       <c r="L111" s="468"/>
     </row>
     <row r="112" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="454" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="B112" s="455" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C112" s="455" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D112" s="455" t="s">
         <v>1685</v>
       </c>
-      <c r="C112" s="455" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D112" s="455" t="s">
-        <v>1687</v>
-      </c>
       <c r="E112" s="455" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="F112" s="455"/>
       <c r="G112" s="455"/>
       <c r="H112" s="455"/>
       <c r="I112" s="455"/>
       <c r="J112" s="456" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K112" s="455"/>
       <c r="L112" s="468"/>
     </row>
     <row r="113" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="454" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B113" s="455" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C113" s="455" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D113" s="455" t="s">
         <v>1688</v>
       </c>
-      <c r="C113" s="455" t="s">
+      <c r="E113" s="455" t="s">
         <v>1689</v>
-      </c>
-      <c r="D113" s="455" t="s">
-        <v>1690</v>
-      </c>
-      <c r="E113" s="455" t="s">
-        <v>1691</v>
       </c>
       <c r="F113" s="455"/>
       <c r="G113" s="455"/>
       <c r="H113" s="455"/>
       <c r="I113" s="455"/>
       <c r="J113" s="456" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K113" s="455"/>
       <c r="L113" s="468"/>
     </row>
     <row r="114" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="454" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="B114" s="455" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C114" s="455" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D114" s="455" t="s">
         <v>1692</v>
       </c>
-      <c r="C114" s="455" t="s">
+      <c r="E114" s="455" t="s">
         <v>1693</v>
-      </c>
-      <c r="D114" s="455" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E114" s="455" t="s">
-        <v>1695</v>
       </c>
       <c r="F114" s="455"/>
       <c r="G114" s="455"/>
       <c r="H114" s="455"/>
       <c r="I114" s="455"/>
       <c r="J114" s="456" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K114" s="455"/>
       <c r="L114" s="468"/>
     </row>
     <row r="115" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="454" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="B115" s="455" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C115" s="455" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D115" s="455" t="s">
         <v>1696</v>
       </c>
-      <c r="C115" s="455" t="s">
+      <c r="E115" s="455" t="s">
         <v>1697</v>
-      </c>
-      <c r="D115" s="455" t="s">
-        <v>1698</v>
-      </c>
-      <c r="E115" s="455" t="s">
-        <v>1699</v>
       </c>
       <c r="F115" s="455"/>
       <c r="G115" s="455"/>
       <c r="H115" s="455"/>
       <c r="I115" s="455"/>
       <c r="J115" s="456" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K115" s="455"/>
       <c r="L115" s="468"/>
     </row>
     <row r="116" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="454" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="B116" s="455" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C116" s="455" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D116" s="455" t="s">
         <v>1700</v>
       </c>
-      <c r="C116" s="455" t="s">
+      <c r="E116" s="455" t="s">
         <v>1701</v>
-      </c>
-      <c r="D116" s="455" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E116" s="455" t="s">
-        <v>1703</v>
       </c>
       <c r="F116" s="455"/>
       <c r="G116" s="455"/>
       <c r="H116" s="455"/>
       <c r="I116" s="455"/>
       <c r="J116" s="456" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K116" s="455"/>
       <c r="L116" s="468"/>
     </row>
     <row r="117" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="454" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B117" s="455" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C117" s="455" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D117" s="455" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E117" s="455" t="s">
         <v>1704</v>
-      </c>
-      <c r="C117" s="455" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D117" s="455" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E117" s="455" t="s">
-        <v>1706</v>
       </c>
       <c r="F117" s="455"/>
       <c r="G117" s="455"/>
       <c r="H117" s="455"/>
       <c r="I117" s="455"/>
       <c r="J117" s="456" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K117" s="455"/>
       <c r="L117" s="468"/>
     </row>
     <row r="118" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="454" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B118" s="455" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C118" s="455" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D118" s="455" t="s">
         <v>1707</v>
       </c>
-      <c r="C118" s="455" t="s">
+      <c r="E118" s="455" t="s">
         <v>1708</v>
-      </c>
-      <c r="D118" s="455" t="s">
-        <v>1709</v>
-      </c>
-      <c r="E118" s="455" t="s">
-        <v>1710</v>
       </c>
       <c r="F118" s="455"/>
       <c r="G118" s="455"/>
       <c r="H118" s="455"/>
       <c r="I118" s="455"/>
       <c r="J118" s="456" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K118" s="455"/>
       <c r="L118" s="468"/>
     </row>
     <row r="119" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="454" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B119" s="455" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C119" s="455" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D119" s="455" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="E119" s="455" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="F119" s="455"/>
       <c r="G119" s="455"/>
       <c r="H119" s="455"/>
       <c r="I119" s="455"/>
       <c r="J119" s="456" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K119" s="455"/>
       <c r="L119" s="468"/>
     </row>
     <row r="120" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="454" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B120" s="455" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C120" s="455" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D120" s="455" t="s">
         <v>1713</v>
       </c>
-      <c r="C120" s="455" t="s">
-        <v>1714</v>
-      </c>
-      <c r="D120" s="455" t="s">
-        <v>1715</v>
-      </c>
       <c r="E120" s="455" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="F120" s="455"/>
       <c r="G120" s="455"/>
       <c r="H120" s="455"/>
       <c r="I120" s="455"/>
       <c r="J120" s="456" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="K120" s="455"/>
       <c r="L120" s="468"/>
     </row>
     <row r="121" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="454" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B121" s="455" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C121" s="455" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D121" s="455" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E121" s="455" t="s">
         <v>1716</v>
-      </c>
-      <c r="C121" s="455" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D121" s="455" t="s">
-        <v>1717</v>
-      </c>
-      <c r="E121" s="455" t="s">
-        <v>1718</v>
       </c>
       <c r="F121" s="455"/>
       <c r="G121" s="455"/>
@@ -42790,19 +42831,19 @@
     </row>
     <row r="122" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="454" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="B122" s="455" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C122" s="455" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D122" s="455" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E122" s="455" t="s">
         <v>1719</v>
-      </c>
-      <c r="C122" s="455" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D122" s="455" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E122" s="455" t="s">
-        <v>1721</v>
       </c>
       <c r="F122" s="455"/>
       <c r="G122" s="455"/>
@@ -42814,19 +42855,19 @@
     </row>
     <row r="123" spans="1:12" s="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="454" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="B123" s="455" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C123" s="455" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D123" s="455" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E123" s="455" t="s">
         <v>1722</v>
-      </c>
-      <c r="C123" s="455" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D123" s="455" t="s">
-        <v>1723</v>
-      </c>
-      <c r="E123" s="455" t="s">
-        <v>1724</v>
       </c>
       <c r="F123" s="455"/>
       <c r="G123" s="455"/>
@@ -42838,19 +42879,19 @@
     </row>
     <row r="124" spans="1:12" s="467" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="454" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B124" s="469" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="C124" s="470" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D124" s="471" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="E124" s="471" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="F124" s="455"/>
       <c r="G124" s="455"/>
@@ -42862,19 +42903,19 @@
     </row>
     <row r="125" spans="1:12" s="467" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="454" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B125" s="469" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="C125" s="470" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D125" s="471" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="E125" s="471" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="F125" s="455"/>
       <c r="G125" s="455"/>
@@ -42886,19 +42927,19 @@
     </row>
     <row r="126" spans="1:12" s="467" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="454" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="B126" s="469" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="C126" s="470" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D126" s="471" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="E126" s="471" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="F126" s="455"/>
       <c r="G126" s="455"/>
@@ -42910,19 +42951,19 @@
     </row>
     <row r="127" spans="1:12" s="467" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="454" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="B127" s="469" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="C127" s="470" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D127" s="471" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="E127" s="471" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="F127" s="455"/>
       <c r="G127" s="455"/>
@@ -42934,19 +42975,19 @@
     </row>
     <row r="128" spans="1:12" s="467" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="454" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B128" s="469" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="C128" s="470" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D128" s="471" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="E128" s="471" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="F128" s="455"/>
       <c r="G128" s="455"/>
@@ -42958,19 +42999,19 @@
     </row>
     <row r="129" spans="1:31" s="467" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="454" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="B129" s="469" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="C129" s="470" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D129" s="471" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="E129" s="471" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="F129" s="455"/>
       <c r="G129" s="455"/>
@@ -42982,19 +43023,19 @@
     </row>
     <row r="130" spans="1:31" s="538" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="531" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="B130" s="541" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C130" s="542" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D130" s="438" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="E130" s="438" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="F130" s="532"/>
       <c r="G130" s="532"/>
@@ -43006,19 +43047,19 @@
     </row>
     <row r="131" spans="1:31" s="538" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="531" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="B131" s="541" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C131" s="542" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D131" s="438" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="E131" s="438" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="F131" s="532"/>
       <c r="G131" s="532"/>
@@ -43030,7 +43071,7 @@
     </row>
     <row r="132" spans="1:31" s="466" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="462" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B132" s="463"/>
       <c r="C132" s="463"/>
@@ -43065,19 +43106,19 @@
     </row>
     <row r="133" spans="1:31" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="531" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B133" s="532" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C133" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D133" s="532" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E133" s="532" t="s">
         <v>1740</v>
-      </c>
-      <c r="C133" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D133" s="532" t="s">
-        <v>1741</v>
-      </c>
-      <c r="E133" s="532" t="s">
-        <v>1742</v>
       </c>
       <c r="F133" s="532"/>
       <c r="G133" s="532"/>
@@ -43089,19 +43130,19 @@
     </row>
     <row r="134" spans="1:31" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="531" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="B134" s="532" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C134" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D134" s="532" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E134" s="532" t="s">
         <v>1743</v>
-      </c>
-      <c r="C134" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D134" s="532" t="s">
-        <v>1744</v>
-      </c>
-      <c r="E134" s="532" t="s">
-        <v>1745</v>
       </c>
       <c r="F134" s="532"/>
       <c r="G134" s="532"/>
@@ -43113,19 +43154,19 @@
     </row>
     <row r="135" spans="1:31" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="531" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B135" s="532" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C135" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D135" s="532" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E135" s="532" t="s">
         <v>1746</v>
-      </c>
-      <c r="C135" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D135" s="532" t="s">
-        <v>1747</v>
-      </c>
-      <c r="E135" s="532" t="s">
-        <v>1748</v>
       </c>
       <c r="F135" s="532"/>
       <c r="G135" s="532"/>
@@ -43137,19 +43178,19 @@
     </row>
     <row r="136" spans="1:31" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="531" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="B136" s="532" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C136" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D136" s="532" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E136" s="532" t="s">
         <v>1749</v>
-      </c>
-      <c r="C136" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D136" s="532" t="s">
-        <v>1750</v>
-      </c>
-      <c r="E136" s="532" t="s">
-        <v>1751</v>
       </c>
       <c r="F136" s="532"/>
       <c r="G136" s="532"/>
@@ -43161,19 +43202,19 @@
     </row>
     <row r="137" spans="1:31" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="531" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B137" s="532" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C137" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D137" s="532" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E137" s="532" t="s">
         <v>1752</v>
-      </c>
-      <c r="C137" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D137" s="532" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E137" s="532" t="s">
-        <v>1754</v>
       </c>
       <c r="F137" s="532"/>
       <c r="G137" s="532"/>
@@ -43185,19 +43226,19 @@
     </row>
     <row r="138" spans="1:31" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="531" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B138" s="532" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C138" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D138" s="532" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E138" s="532" t="s">
         <v>1755</v>
-      </c>
-      <c r="C138" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D138" s="532" t="s">
-        <v>1756</v>
-      </c>
-      <c r="E138" s="532" t="s">
-        <v>1757</v>
       </c>
       <c r="F138" s="532"/>
       <c r="G138" s="532"/>
@@ -43209,19 +43250,19 @@
     </row>
     <row r="139" spans="1:31" s="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="531" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="B139" s="532" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C139" s="532" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D139" s="532" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E139" s="532" t="s">
         <v>1758</v>
-      </c>
-      <c r="C139" s="532" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D139" s="532" t="s">
-        <v>1759</v>
-      </c>
-      <c r="E139" s="532" t="s">
-        <v>1760</v>
       </c>
       <c r="F139" s="532"/>
       <c r="G139" s="532"/>
@@ -45383,46 +45424,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="679" t="s">
+      <c r="A1" s="681" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="678" t="s">
+      <c r="B1" s="669" t="s">
         <v>1050</v>
       </c>
-      <c r="C1" s="678" t="s">
+      <c r="C1" s="669" t="s">
         <v>1051</v>
       </c>
-      <c r="D1" s="678" t="s">
+      <c r="D1" s="669" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="678" t="s">
+      <c r="E1" s="669" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="678" t="s">
+      <c r="F1" s="669" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="678" t="s">
+      <c r="G1" s="669" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="678" t="s">
+      <c r="H1" s="669" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="678" t="s">
+      <c r="I1" s="669" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="678" t="s">
+      <c r="J1" s="669" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="678" t="s">
+      <c r="K1" s="669" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="678" t="s">
+      <c r="L1" s="669" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="669" t="s">
+      <c r="M1" s="678" t="s">
         <v>1052</v>
       </c>
-      <c r="N1" s="671" t="s">
+      <c r="N1" s="679" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -45440,41 +45481,41 @@
       <c r="K2" s="670"/>
       <c r="L2" s="670"/>
       <c r="M2" s="670"/>
-      <c r="N2" s="672"/>
+      <c r="N2" s="673"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="673" t="s">
+      <c r="A3" s="675" t="s">
         <v>1054</v>
       </c>
-      <c r="B3" s="674"/>
-      <c r="C3" s="674"/>
-      <c r="D3" s="674"/>
-      <c r="E3" s="674"/>
-      <c r="F3" s="674"/>
-      <c r="G3" s="674"/>
-      <c r="H3" s="674"/>
-      <c r="I3" s="674"/>
-      <c r="J3" s="674"/>
-      <c r="K3" s="674"/>
-      <c r="L3" s="675"/>
+      <c r="B3" s="676"/>
+      <c r="C3" s="676"/>
+      <c r="D3" s="676"/>
+      <c r="E3" s="676"/>
+      <c r="F3" s="676"/>
+      <c r="G3" s="676"/>
+      <c r="H3" s="676"/>
+      <c r="I3" s="676"/>
+      <c r="J3" s="676"/>
+      <c r="K3" s="676"/>
+      <c r="L3" s="677"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="676" t="s">
+      <c r="A4" s="680" t="s">
         <v>1055</v>
       </c>
-      <c r="B4" s="674"/>
-      <c r="C4" s="674"/>
-      <c r="D4" s="674"/>
-      <c r="E4" s="674"/>
-      <c r="F4" s="674"/>
-      <c r="G4" s="674"/>
-      <c r="H4" s="674"/>
-      <c r="I4" s="674"/>
-      <c r="J4" s="674"/>
-      <c r="K4" s="674"/>
-      <c r="L4" s="675"/>
+      <c r="B4" s="676"/>
+      <c r="C4" s="676"/>
+      <c r="D4" s="676"/>
+      <c r="E4" s="676"/>
+      <c r="F4" s="676"/>
+      <c r="G4" s="676"/>
+      <c r="H4" s="676"/>
+      <c r="I4" s="676"/>
+      <c r="J4" s="676"/>
+      <c r="K4" s="676"/>
+      <c r="L4" s="677"/>
       <c r="M4" s="276"/>
       <c r="N4" s="277"/>
     </row>
@@ -45646,20 +45687,20 @@
       <c r="N10" s="307"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="673" t="s">
+      <c r="A11" s="675" t="s">
         <v>1077</v>
       </c>
-      <c r="B11" s="677"/>
-      <c r="C11" s="677"/>
-      <c r="D11" s="674"/>
-      <c r="E11" s="677"/>
-      <c r="F11" s="674"/>
-      <c r="G11" s="674"/>
-      <c r="H11" s="674"/>
-      <c r="I11" s="674"/>
-      <c r="J11" s="674"/>
-      <c r="K11" s="674"/>
-      <c r="L11" s="675"/>
+      <c r="B11" s="672"/>
+      <c r="C11" s="672"/>
+      <c r="D11" s="676"/>
+      <c r="E11" s="672"/>
+      <c r="F11" s="676"/>
+      <c r="G11" s="676"/>
+      <c r="H11" s="676"/>
+      <c r="I11" s="676"/>
+      <c r="J11" s="676"/>
+      <c r="K11" s="676"/>
+      <c r="L11" s="677"/>
       <c r="M11" s="274"/>
       <c r="N11" s="274"/>
     </row>
@@ -45720,20 +45761,20 @@
       <c r="N13" s="319"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="673" t="s">
+      <c r="A14" s="675" t="s">
         <v>1085</v>
       </c>
-      <c r="B14" s="674"/>
-      <c r="C14" s="674"/>
-      <c r="D14" s="674"/>
-      <c r="E14" s="674"/>
-      <c r="F14" s="674"/>
-      <c r="G14" s="674"/>
-      <c r="H14" s="674"/>
-      <c r="I14" s="674"/>
-      <c r="J14" s="674"/>
-      <c r="K14" s="674"/>
-      <c r="L14" s="675"/>
+      <c r="B14" s="676"/>
+      <c r="C14" s="676"/>
+      <c r="D14" s="676"/>
+      <c r="E14" s="676"/>
+      <c r="F14" s="676"/>
+      <c r="G14" s="676"/>
+      <c r="H14" s="676"/>
+      <c r="I14" s="676"/>
+      <c r="J14" s="676"/>
+      <c r="K14" s="676"/>
+      <c r="L14" s="677"/>
       <c r="M14" s="318"/>
       <c r="N14" s="319"/>
     </row>
@@ -45794,20 +45835,20 @@
       <c r="N16" s="327"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="680" t="s">
+      <c r="A17" s="671" t="s">
         <v>1091</v>
       </c>
-      <c r="B17" s="677"/>
-      <c r="C17" s="677"/>
-      <c r="D17" s="677"/>
-      <c r="E17" s="677"/>
-      <c r="F17" s="677"/>
-      <c r="G17" s="677"/>
-      <c r="H17" s="677"/>
-      <c r="I17" s="677"/>
-      <c r="J17" s="677"/>
-      <c r="K17" s="677"/>
-      <c r="L17" s="672"/>
+      <c r="B17" s="672"/>
+      <c r="C17" s="672"/>
+      <c r="D17" s="672"/>
+      <c r="E17" s="672"/>
+      <c r="F17" s="672"/>
+      <c r="G17" s="672"/>
+      <c r="H17" s="672"/>
+      <c r="I17" s="672"/>
+      <c r="J17" s="672"/>
+      <c r="K17" s="672"/>
+      <c r="L17" s="673"/>
       <c r="M17" s="328"/>
       <c r="N17" s="329"/>
     </row>
@@ -46124,20 +46165,20 @@
       <c r="N30" s="366"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="681" t="s">
+      <c r="A31" s="674" t="s">
         <v>1129</v>
       </c>
-      <c r="B31" s="677"/>
-      <c r="C31" s="677"/>
-      <c r="D31" s="677"/>
-      <c r="E31" s="677"/>
-      <c r="F31" s="677"/>
-      <c r="G31" s="677"/>
-      <c r="H31" s="677"/>
-      <c r="I31" s="677"/>
-      <c r="J31" s="677"/>
-      <c r="K31" s="677"/>
-      <c r="L31" s="672"/>
+      <c r="B31" s="672"/>
+      <c r="C31" s="672"/>
+      <c r="D31" s="672"/>
+      <c r="E31" s="672"/>
+      <c r="F31" s="672"/>
+      <c r="G31" s="672"/>
+      <c r="H31" s="672"/>
+      <c r="I31" s="672"/>
+      <c r="J31" s="672"/>
+      <c r="K31" s="672"/>
+      <c r="L31" s="673"/>
       <c r="M31" s="367"/>
       <c r="N31" s="367"/>
     </row>
@@ -60601,11 +60642,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
@@ -60621,6 +60657,11 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -60631,8 +60672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:XFD92"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -60723,13 +60764,13 @@
     </row>
     <row r="4" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="437" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B4" s="438" t="s">
         <v>1168</v>
       </c>
       <c r="C4" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D4" s="438" t="s">
         <v>1169</v>
@@ -60747,13 +60788,13 @@
     </row>
     <row r="5" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="437" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B5" s="438" t="s">
         <v>1171</v>
       </c>
       <c r="C5" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D5" s="438" t="s">
         <v>1172</v>
@@ -60771,13 +60812,13 @@
     </row>
     <row r="6" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="437" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B6" s="438" t="s">
         <v>1174</v>
       </c>
       <c r="C6" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D6" s="438" t="s">
         <v>1175</v>
@@ -60795,13 +60836,13 @@
     </row>
     <row r="7" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="437" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B7" s="438" t="s">
         <v>1176</v>
       </c>
       <c r="C7" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D7" s="438" t="s">
         <v>1177</v>
@@ -60819,13 +60860,13 @@
     </row>
     <row r="8" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="437" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B8" s="438" t="s">
         <v>1178</v>
       </c>
       <c r="C8" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D8" s="438" t="s">
         <v>1179</v>
@@ -60843,13 +60884,13 @@
     </row>
     <row r="9" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="437" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="B9" s="438" t="s">
         <v>1180</v>
       </c>
       <c r="C9" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D9" s="438" t="s">
         <v>1181</v>
@@ -60867,13 +60908,13 @@
     </row>
     <row r="10" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="437" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B10" s="438" t="s">
         <v>1182</v>
       </c>
       <c r="C10" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D10" s="438" t="s">
         <v>1183</v>
@@ -60891,13 +60932,13 @@
     </row>
     <row r="11" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="437" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B11" s="438" t="s">
         <v>1184</v>
       </c>
       <c r="C11" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D11" s="438" t="s">
         <v>1185</v>
@@ -60915,13 +60956,13 @@
     </row>
     <row r="12" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="437" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B12" s="438" t="s">
         <v>1186</v>
       </c>
       <c r="C12" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D12" s="438" t="s">
         <v>1187</v>
@@ -60955,13 +60996,13 @@
     </row>
     <row r="14" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="437" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B14" s="438" t="s">
         <v>1190</v>
       </c>
       <c r="C14" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D14" s="438" t="s">
         <v>1191</v>
@@ -60978,13 +61019,13 @@
     </row>
     <row r="15" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="437" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B15" s="438" t="s">
         <v>1193</v>
       </c>
       <c r="C15" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D15" s="438" t="s">
         <v>1194</v>
@@ -61002,13 +61043,13 @@
     </row>
     <row r="16" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="437" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B16" s="438" t="s">
         <v>1196</v>
       </c>
       <c r="C16" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D16" s="438" t="s">
         <v>1197</v>
@@ -61026,13 +61067,13 @@
     </row>
     <row r="17" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="437" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B17" s="438" t="s">
         <v>1199</v>
       </c>
       <c r="C17" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D17" s="438" t="s">
         <v>1200</v>
@@ -61049,13 +61090,13 @@
     </row>
     <row r="18" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="437" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B18" s="438" t="s">
         <v>1202</v>
       </c>
       <c r="C18" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D18" s="438" t="s">
         <v>1203</v>
@@ -61073,13 +61114,13 @@
     </row>
     <row r="19" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="437" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B19" s="438" t="s">
         <v>1205</v>
       </c>
       <c r="C19" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D19" s="438" t="s">
         <v>1206</v>
@@ -61097,13 +61138,13 @@
     </row>
     <row r="20" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="437" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B20" s="438" t="s">
         <v>1208</v>
       </c>
       <c r="C20" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D20" s="438" t="s">
         <v>1209</v>
@@ -61137,13 +61178,13 @@
     </row>
     <row r="22" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="437" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B22" s="438" t="s">
         <v>1212</v>
       </c>
       <c r="C22" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D22" s="438" t="s">
         <v>1213</v>
@@ -61161,13 +61202,13 @@
     </row>
     <row r="23" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="437" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B23" s="438" t="s">
         <v>1215</v>
       </c>
       <c r="C23" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D23" s="438" t="s">
         <v>1216</v>
@@ -61185,13 +61226,13 @@
     </row>
     <row r="24" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="437" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B24" s="438" t="s">
         <v>1218</v>
       </c>
       <c r="C24" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D24" s="438" t="s">
         <v>1219</v>
@@ -61225,13 +61266,13 @@
     </row>
     <row r="26" spans="1:12" s="442" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="437" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B26" s="438" t="s">
         <v>1222</v>
       </c>
       <c r="C26" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D26" s="438" t="s">
         <v>1223</v>
@@ -61249,13 +61290,13 @@
     </row>
     <row r="27" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="437" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B27" s="438" t="s">
         <v>1225</v>
       </c>
       <c r="C27" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D27" s="438" t="s">
         <v>1226</v>
@@ -61273,13 +61314,13 @@
     </row>
     <row r="28" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="437" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B28" s="438" t="s">
         <v>1228</v>
       </c>
       <c r="C28" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D28" s="438" t="s">
         <v>1229</v>
@@ -61297,13 +61338,13 @@
     </row>
     <row r="29" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="437" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B29" s="438" t="s">
         <v>1231</v>
       </c>
       <c r="C29" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D29" s="438" t="s">
         <v>1232</v>
@@ -61321,19 +61362,19 @@
     </row>
     <row r="30" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="437" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B30" s="438" t="s">
         <v>1234</v>
       </c>
       <c r="C30" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D30" s="438" t="s">
         <v>1235</v>
       </c>
       <c r="E30" s="438" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="F30" s="443"/>
       <c r="G30" s="443"/>
@@ -61345,13 +61386,13 @@
     </row>
     <row r="31" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="437" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B31" s="438" t="s">
         <v>1236</v>
       </c>
       <c r="C31" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D31" s="438" t="s">
         <v>1237</v>
@@ -61369,13 +61410,13 @@
     </row>
     <row r="32" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="437" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B32" s="438" t="s">
         <v>1239</v>
       </c>
       <c r="C32" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D32" s="438" t="s">
         <v>1240</v>
@@ -61393,13 +61434,13 @@
     </row>
     <row r="33" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="437" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B33" s="438" t="s">
         <v>1242</v>
       </c>
       <c r="C33" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D33" s="438" t="s">
         <v>1243</v>
@@ -61417,13 +61458,13 @@
     </row>
     <row r="34" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="437" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B34" s="438" t="s">
         <v>1245</v>
       </c>
       <c r="C34" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D34" s="438" t="s">
         <v>1246</v>
@@ -61441,13 +61482,13 @@
     </row>
     <row r="35" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="437" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B35" s="438" t="s">
         <v>1248</v>
       </c>
       <c r="C35" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D35" s="438" t="s">
         <v>1249</v>
@@ -61465,13 +61506,13 @@
     </row>
     <row r="36" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="437" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B36" s="438" t="s">
         <v>1251</v>
       </c>
       <c r="C36" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D36" s="438" t="s">
         <v>1252</v>
@@ -61489,13 +61530,13 @@
     </row>
     <row r="37" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="437" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B37" s="438" t="s">
         <v>1254</v>
       </c>
       <c r="C37" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D37" s="438" t="s">
         <v>1255</v>
@@ -61529,13 +61570,13 @@
     </row>
     <row r="39" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="437" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B39" s="438" t="s">
         <v>1222</v>
       </c>
       <c r="C39" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D39" s="438" t="s">
         <v>1258</v>
@@ -61553,13 +61594,13 @@
     </row>
     <row r="40" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="437" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B40" s="438" t="s">
         <v>1260</v>
       </c>
       <c r="C40" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D40" s="438" t="s">
         <v>1261</v>
@@ -61593,13 +61634,13 @@
     </row>
     <row r="42" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="437" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B42" s="438" t="s">
         <v>1222</v>
       </c>
       <c r="C42" s="439" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="D42" s="438" t="s">
         <v>1264</v>
@@ -61617,13 +61658,13 @@
     </row>
     <row r="43" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="437" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B43" s="438" t="s">
         <v>1266</v>
       </c>
       <c r="C43" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D43" s="438" t="s">
         <v>1267</v>
@@ -61641,13 +61682,13 @@
     </row>
     <row r="44" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="437" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B44" s="438" t="s">
         <v>1269</v>
       </c>
       <c r="C44" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D44" s="438" t="s">
         <v>1270</v>
@@ -61665,13 +61706,13 @@
     </row>
     <row r="45" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="437" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B45" s="438" t="s">
         <v>1272</v>
       </c>
       <c r="C45" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D45" s="438" t="s">
         <v>1273</v>
@@ -61705,19 +61746,19 @@
     </row>
     <row r="47" spans="1:12" s="410" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="437" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B47" s="438" t="s">
         <v>1222</v>
       </c>
       <c r="C47" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D47" s="438" t="s">
         <v>1276</v>
       </c>
       <c r="E47" s="438" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="F47" s="443"/>
       <c r="G47" s="443"/>
@@ -61729,19 +61770,19 @@
     </row>
     <row r="48" spans="1:12" s="410" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="437" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B48" s="438" t="s">
         <v>1277</v>
       </c>
       <c r="C48" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D48" s="438" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="E48" s="478" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="F48" s="443"/>
       <c r="G48" s="443"/>
@@ -61753,13 +61794,13 @@
     </row>
     <row r="49" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="437" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B49" s="438" t="s">
         <v>1278</v>
       </c>
       <c r="C49" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D49" s="438" t="s">
         <v>1279</v>
@@ -61793,19 +61834,19 @@
     </row>
     <row r="51" spans="1:12" s="406" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="402" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B51" s="403" t="s">
         <v>1222</v>
       </c>
       <c r="C51" s="404" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D51" s="403" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E51" s="403" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="F51" s="405"/>
       <c r="G51" s="405"/>
@@ -61817,26 +61858,26 @@
     </row>
     <row r="52" spans="1:12" s="406" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="402" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B52" s="403" t="s">
         <v>1282</v>
       </c>
       <c r="C52" s="404" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D52" s="403" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E52" s="403" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="F52" s="405"/>
       <c r="G52" s="405"/>
       <c r="H52" s="405"/>
       <c r="I52" s="405"/>
       <c r="J52" s="436" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="K52" s="405"/>
       <c r="L52" s="405"/>
@@ -61859,13 +61900,13 @@
     </row>
     <row r="54" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="437" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B54" s="438" t="s">
         <v>1222</v>
       </c>
       <c r="C54" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D54" s="438" t="s">
         <v>1284</v>
@@ -61883,13 +61924,13 @@
     </row>
     <row r="55" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="437" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B55" s="438" t="s">
         <v>1286</v>
       </c>
       <c r="C55" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D55" s="438" t="s">
         <v>1287</v>
@@ -61923,16 +61964,16 @@
     </row>
     <row r="57" spans="1:12" s="410" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="437" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B57" s="438" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C57" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D57" s="438" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E57" s="438" t="s">
         <v>1290</v>
@@ -61947,19 +61988,19 @@
     </row>
     <row r="58" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="437" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B58" s="438" t="s">
         <v>1291</v>
       </c>
       <c r="C58" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D58" s="438" t="s">
         <v>1292</v>
       </c>
       <c r="E58" s="479" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="F58" s="443"/>
       <c r="G58" s="443"/>
@@ -61987,19 +62028,19 @@
     </row>
     <row r="60" spans="1:12" s="410" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="437" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B60" s="438" t="s">
         <v>1222</v>
       </c>
       <c r="C60" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D60" s="438" t="s">
         <v>1294</v>
       </c>
       <c r="E60" s="479" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="F60" s="443"/>
       <c r="G60" s="443"/>
@@ -62011,13 +62052,13 @@
     </row>
     <row r="61" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="437" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B61" s="438" t="s">
         <v>1295</v>
       </c>
       <c r="C61" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D61" s="438" t="s">
         <v>1296</v>
@@ -62035,13 +62076,13 @@
     </row>
     <row r="62" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="437" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B62" s="438" t="s">
         <v>1298</v>
       </c>
       <c r="C62" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D62" s="438" t="s">
         <v>1299</v>
@@ -62059,13 +62100,13 @@
     </row>
     <row r="63" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="437" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B63" s="479" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="C63" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D63" s="438" t="s">
         <v>1301</v>
@@ -62083,13 +62124,13 @@
     </row>
     <row r="64" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="437" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B64" s="438" t="s">
         <v>1303</v>
       </c>
       <c r="C64" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D64" s="438" t="s">
         <v>1304</v>
@@ -62107,13 +62148,13 @@
     </row>
     <row r="65" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="437" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B65" s="438" t="s">
         <v>1306</v>
       </c>
       <c r="C65" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D65" s="438" t="s">
         <v>1307</v>
@@ -62147,19 +62188,19 @@
     </row>
     <row r="67" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="437" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B67" s="438" t="s">
         <v>1222</v>
       </c>
       <c r="C67" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D67" s="438" t="s">
         <v>1309</v>
       </c>
       <c r="E67" s="438" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="F67" s="443"/>
       <c r="G67" s="443"/>
@@ -62171,45 +62212,45 @@
     </row>
     <row r="68" spans="1:12" s="406" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="402" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B68" s="403" t="s">
         <v>1310</v>
       </c>
       <c r="C68" s="404" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D68" s="403" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E68" s="403" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="F68" s="405"/>
       <c r="G68" s="405"/>
       <c r="H68" s="405"/>
       <c r="I68" s="405"/>
       <c r="J68" s="407" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="K68" s="405"/>
       <c r="L68" s="405"/>
     </row>
     <row r="69" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="437" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B69" s="438" t="s">
         <v>1311</v>
       </c>
       <c r="C69" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D69" s="438" t="s">
         <v>1312</v>
       </c>
       <c r="E69" s="438" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="F69" s="443"/>
       <c r="G69" s="443"/>
@@ -62221,13 +62262,13 @@
     </row>
     <row r="70" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="437" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B70" s="438" t="s">
         <v>1313</v>
       </c>
       <c r="C70" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D70" s="438" t="s">
         <v>1314</v>
@@ -62245,13 +62286,13 @@
     </row>
     <row r="71" spans="1:12" s="410" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="437" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B71" s="438" t="s">
         <v>1316</v>
       </c>
       <c r="C71" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D71" s="438" t="s">
         <v>1317</v>
@@ -62285,16 +62326,16 @@
     </row>
     <row r="73" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="437" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B73" s="438" t="s">
         <v>1222</v>
       </c>
       <c r="C73" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D73" s="438" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="E73" s="438" t="s">
         <v>1320</v>
@@ -62309,19 +62350,19 @@
     </row>
     <row r="74" spans="1:12" s="410" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="437" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B74" s="438" t="s">
         <v>1321</v>
       </c>
       <c r="C74" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D74" s="438" t="s">
         <v>1322</v>
       </c>
       <c r="E74" s="479" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="F74" s="443"/>
       <c r="G74" s="443"/>
@@ -62333,13 +62374,13 @@
     </row>
     <row r="75" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="437" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B75" s="438" t="s">
         <v>1323</v>
       </c>
       <c r="C75" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D75" s="438" t="s">
         <v>1324</v>
@@ -62373,13 +62414,13 @@
     </row>
     <row r="77" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="437" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B77" s="438" t="s">
         <v>1222</v>
       </c>
       <c r="C77" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D77" s="438" t="s">
         <v>1327</v>
@@ -62397,19 +62438,19 @@
     </row>
     <row r="78" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="437" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B78" s="438" t="s">
         <v>1329</v>
       </c>
       <c r="C78" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D78" s="438" t="s">
         <v>1330</v>
       </c>
       <c r="E78" s="438" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="F78" s="443"/>
       <c r="G78" s="443"/>
@@ -62437,13 +62478,13 @@
     </row>
     <row r="80" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="437" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B80" s="438" t="s">
         <v>1222</v>
       </c>
       <c r="C80" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D80" s="438" t="s">
         <v>1332</v>
@@ -62461,13 +62502,13 @@
     </row>
     <row r="81" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="437" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B81" s="438" t="s">
         <v>1334</v>
       </c>
       <c r="C81" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D81" s="438" t="s">
         <v>1335</v>
@@ -62501,13 +62542,13 @@
     </row>
     <row r="83" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="437" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B83" s="438" t="s">
         <v>1222</v>
       </c>
       <c r="C83" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D83" s="438" t="s">
         <v>1338</v>
@@ -62523,45 +62564,45 @@
       <c r="K83" s="443"/>
       <c r="L83" s="443"/>
     </row>
-    <row r="84" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="437" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B84" s="438" t="s">
+    <row r="84" spans="1:12" s="484" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="565" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B84" s="524" t="s">
         <v>1340</v>
       </c>
-      <c r="C84" s="439" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D84" s="438" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E84" s="438" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F84" s="443"/>
-      <c r="G84" s="443"/>
-      <c r="H84" s="443"/>
-      <c r="I84" s="443"/>
-      <c r="J84" s="443"/>
-      <c r="K84" s="443"/>
-      <c r="L84" s="443"/>
+      <c r="C84" s="566" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D84" s="524" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E84" s="524" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F84" s="567"/>
+      <c r="G84" s="567"/>
+      <c r="H84" s="567"/>
+      <c r="I84" s="567"/>
+      <c r="J84" s="567"/>
+      <c r="K84" s="567"/>
+      <c r="L84" s="567"/>
     </row>
     <row r="85" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="437" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B85" s="438" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C85" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D85" s="438" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="E85" s="438" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="F85" s="443"/>
       <c r="G85" s="443"/>
@@ -62573,19 +62614,19 @@
     </row>
     <row r="86" spans="1:12" s="410" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="437" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B86" s="438" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C86" s="439" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D86" s="438" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E86" s="438" t="s">
         <v>1345</v>
-      </c>
-      <c r="C86" s="439" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D86" s="438" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E86" s="438" t="s">
-        <v>1347</v>
       </c>
       <c r="F86" s="443"/>
       <c r="G86" s="443"/>
@@ -62597,19 +62638,19 @@
     </row>
     <row r="87" spans="1:12" s="410" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A87" s="437" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B87" s="438" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C87" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D87" s="438" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E87" s="438" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="F87" s="443"/>
       <c r="G87" s="443"/>
@@ -62621,7 +62662,7 @@
     </row>
     <row r="88" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="444" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B88" s="445"/>
       <c r="C88" s="445"/>
@@ -62637,19 +62678,19 @@
     </row>
     <row r="89" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="437" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B89" s="438" t="s">
         <v>1222</v>
       </c>
       <c r="C89" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D89" s="438" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E89" s="438" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F89" s="443"/>
       <c r="G89" s="443"/>
@@ -62661,19 +62702,19 @@
     </row>
     <row r="90" spans="1:12" s="410" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="437" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B90" s="438" t="s">
         <v>1222</v>
       </c>
       <c r="C90" s="439" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D90" s="438" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E90" s="438" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F90" s="443"/>
       <c r="G90" s="443"/>
@@ -62701,19 +62742,19 @@
     </row>
     <row r="92" spans="1:12" s="484" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A92" s="565" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="B92" s="524" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C92" s="566" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D92" s="524" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E92" s="524" t="s">
         <v>2248</v>
-      </c>
-      <c r="C92" s="566" t="s">
-        <v>2252</v>
-      </c>
-      <c r="D92" s="524" t="s">
-        <v>2249</v>
-      </c>
-      <c r="E92" s="524" t="s">
-        <v>2250</v>
       </c>
       <c r="F92" s="567"/>
       <c r="G92" s="567"/>
@@ -62739,19 +62780,19 @@
     </row>
     <row r="94" spans="1:12" s="415" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="411" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B94" s="412" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C94" s="413" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D94" s="412" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E94" s="412" t="s">
         <v>1496</v>
-      </c>
-      <c r="C94" s="413" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D94" s="412" t="s">
-        <v>1497</v>
-      </c>
-      <c r="E94" s="412" t="s">
-        <v>1498</v>
       </c>
       <c r="F94" s="414"/>
       <c r="G94" s="414"/>
@@ -62763,19 +62804,19 @@
     </row>
     <row r="95" spans="1:12" s="420" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="411" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B95" s="416" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C95" s="417" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D95" s="416" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E95" s="416" t="s">
         <v>1499</v>
-      </c>
-      <c r="C95" s="417" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D95" s="416" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E95" s="416" t="s">
-        <v>1501</v>
       </c>
       <c r="F95" s="418"/>
       <c r="G95" s="418"/>
@@ -62787,19 +62828,19 @@
     </row>
     <row r="96" spans="1:12" s="415" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="411" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B96" s="412" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C96" s="413" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D96" s="412" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E96" s="412" t="s">
         <v>1502</v>
-      </c>
-      <c r="C96" s="413" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D96" s="412" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E96" s="412" t="s">
-        <v>1504</v>
       </c>
       <c r="F96" s="414"/>
       <c r="G96" s="414"/>
@@ -62811,19 +62852,19 @@
     </row>
     <row r="97" spans="1:12" s="415" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="411" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B97" s="421" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C97" s="422" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D97" s="421" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E97" s="421" t="s">
         <v>1505</v>
-      </c>
-      <c r="C97" s="422" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D97" s="421" t="s">
-        <v>1506</v>
-      </c>
-      <c r="E97" s="421" t="s">
-        <v>1507</v>
       </c>
       <c r="F97" s="423"/>
       <c r="G97" s="423"/>
@@ -62835,19 +62876,19 @@
     </row>
     <row r="98" spans="1:12" s="415" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="411" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B98" s="421" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C98" s="422" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D98" s="421" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E98" s="421" t="s">
         <v>1508</v>
-      </c>
-      <c r="C98" s="422" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D98" s="421" t="s">
-        <v>1509</v>
-      </c>
-      <c r="E98" s="421" t="s">
-        <v>1510</v>
       </c>
       <c r="F98" s="423"/>
       <c r="G98" s="423"/>
@@ -62859,7 +62900,7 @@
     </row>
     <row r="99" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="682" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B99" s="682"/>
       <c r="C99" s="682"/>
@@ -62875,19 +62916,19 @@
     </row>
     <row r="100" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="393" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B100" s="213" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C100" s="394" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D100" s="213" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E100" s="213" t="s">
         <v>1355</v>
-      </c>
-      <c r="C100" s="394" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D100" s="213" t="s">
-        <v>1356</v>
-      </c>
-      <c r="E100" s="213" t="s">
-        <v>1357</v>
       </c>
       <c r="F100" s="204"/>
       <c r="G100" s="204"/>
@@ -62899,19 +62940,19 @@
     </row>
     <row r="101" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="393" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B101" s="213" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C101" s="394" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D101" s="213" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E101" s="213" t="s">
         <v>1358</v>
-      </c>
-      <c r="C101" s="394" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D101" s="213" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E101" s="213" t="s">
-        <v>1360</v>
       </c>
       <c r="F101" s="205"/>
       <c r="G101" s="204"/>
@@ -62923,19 +62964,19 @@
     </row>
     <row r="102" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="393" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B102" s="213" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C102" s="394" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D102" s="213" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="E102" s="213" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="F102" s="204"/>
       <c r="G102" s="204"/>
@@ -62947,19 +62988,19 @@
     </row>
     <row r="103" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="393" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B103" s="213" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C103" s="394" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D103" s="213" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E103" s="213" t="s">
         <v>1363</v>
-      </c>
-      <c r="C103" s="394" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D103" s="213" t="s">
-        <v>1364</v>
-      </c>
-      <c r="E103" s="213" t="s">
-        <v>1365</v>
       </c>
       <c r="F103" s="204"/>
       <c r="G103" s="204"/>
@@ -62971,19 +63012,19 @@
     </row>
     <row r="104" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="393" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B104" s="213" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C104" s="394" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D104" s="213" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E104" s="213" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F104" s="204"/>
       <c r="G104" s="204"/>
@@ -62995,7 +63036,7 @@
     </row>
     <row r="105" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="395" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="B105" s="204"/>
       <c r="C105" s="204"/>
@@ -63011,19 +63052,19 @@
     </row>
     <row r="106" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="393" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B106" s="213" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C106" s="394" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D106" s="213" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E106" s="213" t="s">
         <v>1369</v>
-      </c>
-      <c r="C106" s="394" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D106" s="213" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E106" s="213" t="s">
-        <v>1371</v>
       </c>
       <c r="F106" s="213"/>
       <c r="G106" s="204"/>
@@ -63035,19 +63076,19 @@
     </row>
     <row r="107" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="393" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B107" s="213" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C107" s="394" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D107" s="213" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E107" s="396" t="s">
         <v>1372</v>
-      </c>
-      <c r="C107" s="394" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D107" s="213" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E107" s="396" t="s">
-        <v>1374</v>
       </c>
       <c r="F107" s="204"/>
       <c r="G107" s="204"/>
@@ -63059,19 +63100,19 @@
     </row>
     <row r="108" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="393" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B108" s="213" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C108" s="394" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D108" s="213" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E108" s="396" t="s">
         <v>1375</v>
-      </c>
-      <c r="C108" s="394" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D108" s="213" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E108" s="396" t="s">
-        <v>1377</v>
       </c>
       <c r="F108" s="204"/>
       <c r="G108" s="204"/>
@@ -63083,19 +63124,19 @@
     </row>
     <row r="109" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="393" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B109" s="213" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C109" s="394" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D109" s="213" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E109" s="396" t="s">
         <v>1378</v>
-      </c>
-      <c r="C109" s="394" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D109" s="213" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E109" s="396" t="s">
-        <v>1380</v>
       </c>
       <c r="F109" s="204"/>
       <c r="G109" s="204"/>
@@ -63146,10 +63187,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="616" t="s">
+      <c r="A1" s="652" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="616"/>
+      <c r="B1" s="652"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -63184,250 +63225,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="617" t="s">
+      <c r="A2" s="653" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="617" t="s">
+      <c r="B2" s="653" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="617" t="s">
+      <c r="C2" s="653" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="620" t="s">
+      <c r="D2" s="656" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="620"/>
-      <c r="F2" s="620"/>
-      <c r="G2" s="629" t="s">
+      <c r="E2" s="656"/>
+      <c r="F2" s="656"/>
+      <c r="G2" s="622" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="630"/>
-      <c r="I2" s="630"/>
-      <c r="J2" s="631"/>
-      <c r="K2" s="647" t="s">
+      <c r="H2" s="623"/>
+      <c r="I2" s="623"/>
+      <c r="J2" s="628"/>
+      <c r="K2" s="616" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="647"/>
-      <c r="M2" s="629" t="s">
+      <c r="L2" s="616"/>
+      <c r="M2" s="622" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="630"/>
-      <c r="O2" s="631"/>
-      <c r="P2" s="629" t="s">
+      <c r="N2" s="623"/>
+      <c r="O2" s="628"/>
+      <c r="P2" s="622" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="631"/>
-      <c r="R2" s="629" t="s">
+      <c r="Q2" s="628"/>
+      <c r="R2" s="622" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="630"/>
-      <c r="T2" s="629" t="s">
+      <c r="S2" s="623"/>
+      <c r="T2" s="622" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="630"/>
-      <c r="V2" s="630"/>
-      <c r="W2" s="630"/>
-      <c r="X2" s="631"/>
-      <c r="Y2" s="629" t="s">
+      <c r="U2" s="623"/>
+      <c r="V2" s="623"/>
+      <c r="W2" s="623"/>
+      <c r="X2" s="628"/>
+      <c r="Y2" s="622" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="630"/>
-      <c r="AA2" s="630"/>
-      <c r="AB2" s="631"/>
-      <c r="AC2" s="623" t="s">
+      <c r="Z2" s="623"/>
+      <c r="AA2" s="623"/>
+      <c r="AB2" s="628"/>
+      <c r="AC2" s="637" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="624"/>
-      <c r="AE2" s="624"/>
-      <c r="AF2" s="639"/>
-      <c r="AG2" s="623" t="s">
+      <c r="AD2" s="638"/>
+      <c r="AE2" s="638"/>
+      <c r="AF2" s="647"/>
+      <c r="AG2" s="637" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="624"/>
-      <c r="AI2" s="624"/>
+      <c r="AH2" s="638"/>
+      <c r="AI2" s="638"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="618"/>
-      <c r="B3" s="618"/>
-      <c r="C3" s="618"/>
-      <c r="D3" s="620"/>
-      <c r="E3" s="620"/>
-      <c r="F3" s="620"/>
-      <c r="G3" s="625"/>
-      <c r="H3" s="626"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="632"/>
-      <c r="K3" s="647" t="s">
+      <c r="A3" s="654"/>
+      <c r="B3" s="654"/>
+      <c r="C3" s="654"/>
+      <c r="D3" s="656"/>
+      <c r="E3" s="656"/>
+      <c r="F3" s="656"/>
+      <c r="G3" s="624"/>
+      <c r="H3" s="625"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="629"/>
+      <c r="K3" s="616" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="647"/>
-      <c r="M3" s="625"/>
-      <c r="N3" s="626"/>
-      <c r="O3" s="632"/>
-      <c r="P3" s="625"/>
-      <c r="Q3" s="632"/>
-      <c r="R3" s="625"/>
-      <c r="S3" s="626"/>
-      <c r="T3" s="625"/>
-      <c r="U3" s="626"/>
-      <c r="V3" s="626"/>
-      <c r="W3" s="626"/>
-      <c r="X3" s="632"/>
-      <c r="Y3" s="625"/>
-      <c r="Z3" s="626"/>
-      <c r="AA3" s="626"/>
-      <c r="AB3" s="632"/>
-      <c r="AC3" s="625"/>
-      <c r="AD3" s="626"/>
-      <c r="AE3" s="626"/>
-      <c r="AF3" s="632"/>
-      <c r="AG3" s="625"/>
-      <c r="AH3" s="626"/>
-      <c r="AI3" s="626"/>
+      <c r="L3" s="616"/>
+      <c r="M3" s="624"/>
+      <c r="N3" s="625"/>
+      <c r="O3" s="629"/>
+      <c r="P3" s="624"/>
+      <c r="Q3" s="629"/>
+      <c r="R3" s="624"/>
+      <c r="S3" s="625"/>
+      <c r="T3" s="624"/>
+      <c r="U3" s="625"/>
+      <c r="V3" s="625"/>
+      <c r="W3" s="625"/>
+      <c r="X3" s="629"/>
+      <c r="Y3" s="624"/>
+      <c r="Z3" s="625"/>
+      <c r="AA3" s="625"/>
+      <c r="AB3" s="629"/>
+      <c r="AC3" s="624"/>
+      <c r="AD3" s="625"/>
+      <c r="AE3" s="625"/>
+      <c r="AF3" s="629"/>
+      <c r="AG3" s="624"/>
+      <c r="AH3" s="625"/>
+      <c r="AI3" s="625"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="618"/>
-      <c r="B4" s="618"/>
-      <c r="C4" s="618"/>
-      <c r="D4" s="621" t="s">
+      <c r="A4" s="654"/>
+      <c r="B4" s="654"/>
+      <c r="C4" s="654"/>
+      <c r="D4" s="635" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="621" t="s">
+      <c r="E4" s="635" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="621" t="s">
+      <c r="F4" s="635" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="645" t="s">
+      <c r="G4" s="633" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="645" t="s">
+      <c r="H4" s="633" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="645" t="s">
+      <c r="I4" s="633" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="645" t="s">
+      <c r="J4" s="633" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="648" t="s">
+      <c r="K4" s="617" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="648" t="s">
+      <c r="L4" s="617" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="650" t="s">
+      <c r="M4" s="619" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="650" t="s">
+      <c r="N4" s="619" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="654" t="s">
+      <c r="O4" s="630" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="655" t="s">
+      <c r="P4" s="631" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="655" t="s">
+      <c r="Q4" s="631" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="652" t="s">
+      <c r="R4" s="626" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="652" t="s">
+      <c r="S4" s="626" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="627" t="s">
+      <c r="T4" s="639" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="643" t="s">
+      <c r="U4" s="650" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="644"/>
-      <c r="W4" s="642" t="s">
+      <c r="V4" s="651"/>
+      <c r="W4" s="621" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="642" t="s">
+      <c r="X4" s="621" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="633" t="s">
+      <c r="Y4" s="641" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="633" t="s">
+      <c r="Z4" s="641" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="637" t="s">
+      <c r="AA4" s="645" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="638"/>
-      <c r="AC4" s="635" t="s">
+      <c r="AB4" s="646"/>
+      <c r="AC4" s="643" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="635" t="s">
+      <c r="AD4" s="643" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="640" t="s">
+      <c r="AE4" s="648" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="641"/>
-      <c r="AG4" s="621" t="s">
+      <c r="AF4" s="649"/>
+      <c r="AG4" s="635" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="621" t="s">
+      <c r="AH4" s="635" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="621" t="s">
+      <c r="AI4" s="635" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="619"/>
-      <c r="B5" s="619"/>
-      <c r="C5" s="619"/>
-      <c r="D5" s="622"/>
-      <c r="E5" s="622"/>
-      <c r="F5" s="622"/>
-      <c r="G5" s="646"/>
-      <c r="H5" s="646"/>
-      <c r="I5" s="646"/>
-      <c r="J5" s="646"/>
-      <c r="K5" s="649"/>
-      <c r="L5" s="649"/>
-      <c r="M5" s="651"/>
-      <c r="N5" s="651"/>
-      <c r="O5" s="651"/>
-      <c r="P5" s="656"/>
-      <c r="Q5" s="656"/>
-      <c r="R5" s="653"/>
-      <c r="S5" s="653"/>
-      <c r="T5" s="628"/>
+      <c r="A5" s="655"/>
+      <c r="B5" s="655"/>
+      <c r="C5" s="655"/>
+      <c r="D5" s="636"/>
+      <c r="E5" s="636"/>
+      <c r="F5" s="636"/>
+      <c r="G5" s="634"/>
+      <c r="H5" s="634"/>
+      <c r="I5" s="634"/>
+      <c r="J5" s="634"/>
+      <c r="K5" s="618"/>
+      <c r="L5" s="618"/>
+      <c r="M5" s="620"/>
+      <c r="N5" s="620"/>
+      <c r="O5" s="620"/>
+      <c r="P5" s="632"/>
+      <c r="Q5" s="632"/>
+      <c r="R5" s="627"/>
+      <c r="S5" s="627"/>
+      <c r="T5" s="640"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="642"/>
-      <c r="X5" s="642"/>
-      <c r="Y5" s="634"/>
-      <c r="Z5" s="634"/>
+      <c r="W5" s="621"/>
+      <c r="X5" s="621"/>
+      <c r="Y5" s="642"/>
+      <c r="Z5" s="642"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="636"/>
-      <c r="AD5" s="636"/>
+      <c r="AC5" s="644"/>
+      <c r="AD5" s="644"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="622"/>
-      <c r="AH5" s="622"/>
-      <c r="AI5" s="622"/>
+      <c r="AG5" s="636"/>
+      <c r="AH5" s="636"/>
+      <c r="AI5" s="636"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -63690,26 +63731,14 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -63726,14 +63755,26 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -63786,7 +63827,7 @@
     </row>
     <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="661" t="s">
+      <c r="B2" s="658" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="72" t="s">
@@ -63799,7 +63840,7 @@
     </row>
     <row r="3" spans="1:8" s="65" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A3" s="64"/>
-      <c r="B3" s="662"/>
+      <c r="B3" s="659"/>
       <c r="C3" s="72" t="s">
         <v>145</v>
       </c>
@@ -63810,7 +63851,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
-      <c r="B4" s="657" t="s">
+      <c r="B4" s="663" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="71" t="s">
@@ -63823,7 +63864,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
-      <c r="B5" s="658"/>
+      <c r="B5" s="665"/>
       <c r="C5" s="71" t="s">
         <v>141</v>
       </c>
@@ -63834,7 +63875,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
-      <c r="B6" s="658"/>
+      <c r="B6" s="665"/>
       <c r="C6" s="71" t="s">
         <v>140</v>
       </c>
@@ -63845,7 +63886,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
-      <c r="B7" s="658"/>
+      <c r="B7" s="665"/>
       <c r="C7" s="71" t="s">
         <v>142</v>
       </c>
@@ -63856,7 +63897,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
-      <c r="B8" s="659"/>
+      <c r="B8" s="664"/>
       <c r="C8" s="71" t="s">
         <v>146</v>
       </c>
@@ -63867,7 +63908,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
-      <c r="B9" s="657" t="s">
+      <c r="B9" s="663" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -63880,8 +63921,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
-      <c r="B10" s="658"/>
-      <c r="C10" s="657" t="s">
+      <c r="B10" s="665"/>
+      <c r="C10" s="663" t="s">
         <v>147</v>
       </c>
       <c r="D10" s="70" t="s">
@@ -63893,8 +63934,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
-      <c r="B11" s="658"/>
-      <c r="C11" s="659"/>
+      <c r="B11" s="665"/>
+      <c r="C11" s="664"/>
       <c r="D11" s="70" t="s">
         <v>149</v>
       </c>
@@ -63904,8 +63945,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
-      <c r="B12" s="658"/>
-      <c r="C12" s="657" t="s">
+      <c r="B12" s="665"/>
+      <c r="C12" s="663" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="162" t="s">
@@ -63919,9 +63960,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
-      <c r="B13" s="658"/>
-      <c r="C13" s="658"/>
-      <c r="D13" s="657" t="s">
+      <c r="B13" s="665"/>
+      <c r="C13" s="665"/>
+      <c r="D13" s="663" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="66" t="s">
@@ -63932,9 +63973,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
-      <c r="B14" s="658"/>
-      <c r="C14" s="658"/>
-      <c r="D14" s="658"/>
+      <c r="B14" s="665"/>
+      <c r="C14" s="665"/>
+      <c r="D14" s="665"/>
       <c r="E14" s="66" t="s">
         <v>120</v>
       </c>
@@ -63943,9 +63984,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
-      <c r="B15" s="658"/>
-      <c r="C15" s="658"/>
-      <c r="D15" s="658"/>
+      <c r="B15" s="665"/>
+      <c r="C15" s="665"/>
+      <c r="D15" s="665"/>
       <c r="E15" s="66" t="s">
         <v>121</v>
       </c>
@@ -63954,9 +63995,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
-      <c r="B16" s="658"/>
-      <c r="C16" s="658"/>
-      <c r="D16" s="658"/>
+      <c r="B16" s="665"/>
+      <c r="C16" s="665"/>
+      <c r="D16" s="665"/>
       <c r="E16" s="66" t="s">
         <v>122</v>
       </c>
@@ -63965,9 +64006,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
-      <c r="B17" s="658"/>
-      <c r="C17" s="658"/>
-      <c r="D17" s="659"/>
+      <c r="B17" s="665"/>
+      <c r="C17" s="665"/>
+      <c r="D17" s="664"/>
       <c r="E17" s="66" t="s">
         <v>123</v>
       </c>
@@ -63976,8 +64017,8 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
-      <c r="B18" s="658"/>
-      <c r="C18" s="658"/>
+      <c r="B18" s="665"/>
+      <c r="C18" s="665"/>
       <c r="D18" s="70" t="s">
         <v>117</v>
       </c>
@@ -63989,9 +64030,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
-      <c r="B19" s="658"/>
-      <c r="C19" s="658"/>
-      <c r="D19" s="657" t="s">
+      <c r="B19" s="665"/>
+      <c r="C19" s="665"/>
+      <c r="D19" s="663" t="s">
         <v>118</v>
       </c>
       <c r="E19" s="66" t="s">
@@ -64002,9 +64043,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
-      <c r="B20" s="658"/>
-      <c r="C20" s="659"/>
-      <c r="D20" s="659"/>
+      <c r="B20" s="665"/>
+      <c r="C20" s="664"/>
+      <c r="D20" s="664"/>
       <c r="E20" s="66" t="s">
         <v>123</v>
       </c>
@@ -64013,11 +64054,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
-      <c r="B21" s="658"/>
-      <c r="C21" s="657" t="s">
+      <c r="B21" s="665"/>
+      <c r="C21" s="663" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="657" t="s">
+      <c r="D21" s="663" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="66" t="s">
@@ -64028,9 +64069,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
-      <c r="B22" s="658"/>
-      <c r="C22" s="658"/>
-      <c r="D22" s="659"/>
+      <c r="B22" s="665"/>
+      <c r="C22" s="665"/>
+      <c r="D22" s="664"/>
       <c r="E22" s="66" t="s">
         <v>128</v>
       </c>
@@ -64039,9 +64080,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
-      <c r="B23" s="658"/>
-      <c r="C23" s="658"/>
-      <c r="D23" s="657" t="s">
+      <c r="B23" s="665"/>
+      <c r="C23" s="665"/>
+      <c r="D23" s="663" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="66" t="s">
@@ -64052,9 +64093,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
-      <c r="B24" s="658"/>
-      <c r="C24" s="658"/>
-      <c r="D24" s="658"/>
+      <c r="B24" s="665"/>
+      <c r="C24" s="665"/>
+      <c r="D24" s="665"/>
       <c r="E24" s="66" t="s">
         <v>130</v>
       </c>
@@ -64063,9 +64104,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
-      <c r="B25" s="658"/>
-      <c r="C25" s="658"/>
-      <c r="D25" s="659"/>
+      <c r="B25" s="665"/>
+      <c r="C25" s="665"/>
+      <c r="D25" s="664"/>
       <c r="E25" s="66" t="s">
         <v>131</v>
       </c>
@@ -64074,8 +64115,8 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
-      <c r="B26" s="658"/>
-      <c r="C26" s="659"/>
+      <c r="B26" s="665"/>
+      <c r="C26" s="664"/>
       <c r="D26" s="70" t="s">
         <v>116</v>
       </c>
@@ -64087,8 +64128,8 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
-      <c r="B27" s="658"/>
-      <c r="C27" s="663" t="s">
+      <c r="B27" s="665"/>
+      <c r="C27" s="660" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="162" t="s">
@@ -64103,8 +64144,8 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
-      <c r="B28" s="658"/>
-      <c r="C28" s="664"/>
+      <c r="B28" s="665"/>
+      <c r="C28" s="661"/>
       <c r="D28" s="162" t="s">
         <v>134</v>
       </c>
@@ -64117,8 +64158,8 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="66"/>
-      <c r="B29" s="658"/>
-      <c r="C29" s="665"/>
+      <c r="B29" s="665"/>
+      <c r="C29" s="662"/>
       <c r="D29" s="162" t="s">
         <v>135</v>
       </c>
@@ -64131,7 +64172,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
-      <c r="B30" s="658"/>
+      <c r="B30" s="665"/>
       <c r="C30" s="70" t="s">
         <v>74</v>
       </c>
@@ -64142,7 +64183,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="66"/>
-      <c r="B31" s="658"/>
+      <c r="B31" s="665"/>
       <c r="C31" s="67" t="s">
         <v>95</v>
       </c>
@@ -64153,7 +64194,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="66"/>
-      <c r="B32" s="658"/>
+      <c r="B32" s="665"/>
       <c r="C32" s="70" t="s">
         <v>96</v>
       </c>
@@ -64164,8 +64205,8 @@
     </row>
     <row r="33" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="66"/>
-      <c r="B33" s="658"/>
-      <c r="C33" s="657" t="s">
+      <c r="B33" s="665"/>
+      <c r="C33" s="663" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="70" t="s">
@@ -64177,8 +64218,8 @@
     </row>
     <row r="34" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="66"/>
-      <c r="B34" s="658"/>
-      <c r="C34" s="659"/>
+      <c r="B34" s="665"/>
+      <c r="C34" s="664"/>
       <c r="D34" s="70" t="s">
         <v>152</v>
       </c>
@@ -64188,7 +64229,7 @@
     </row>
     <row r="35" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="66"/>
-      <c r="B35" s="659"/>
+      <c r="B35" s="664"/>
       <c r="C35" s="70" t="s">
         <v>98</v>
       </c>
@@ -64202,7 +64243,7 @@
     </row>
     <row r="36" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A36" s="66"/>
-      <c r="B36" s="657" t="s">
+      <c r="B36" s="663" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="67" t="s">
@@ -64215,7 +64256,7 @@
     </row>
     <row r="37" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A37" s="66"/>
-      <c r="B37" s="658"/>
+      <c r="B37" s="665"/>
       <c r="C37" s="70" t="s">
         <v>99</v>
       </c>
@@ -64226,7 +64267,7 @@
     </row>
     <row r="38" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A38" s="66"/>
-      <c r="B38" s="658"/>
+      <c r="B38" s="665"/>
       <c r="C38" s="70" t="s">
         <v>100</v>
       </c>
@@ -64237,7 +64278,7 @@
     </row>
     <row r="39" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A39" s="66"/>
-      <c r="B39" s="659"/>
+      <c r="B39" s="664"/>
       <c r="C39" s="70" t="s">
         <v>101</v>
       </c>
@@ -64251,7 +64292,7 @@
     </row>
     <row r="40" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A40" s="66"/>
-      <c r="B40" s="657" t="s">
+      <c r="B40" s="663" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="67" t="s">
@@ -64264,8 +64305,8 @@
     </row>
     <row r="41" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A41" s="66"/>
-      <c r="B41" s="658"/>
-      <c r="C41" s="657" t="s">
+      <c r="B41" s="665"/>
+      <c r="C41" s="663" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="70" t="s">
@@ -64277,8 +64318,8 @@
     </row>
     <row r="42" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A42" s="66"/>
-      <c r="B42" s="658"/>
-      <c r="C42" s="659"/>
+      <c r="B42" s="665"/>
+      <c r="C42" s="664"/>
       <c r="D42" s="70" t="s">
         <v>136</v>
       </c>
@@ -64288,7 +64329,7 @@
     </row>
     <row r="43" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A43" s="66"/>
-      <c r="B43" s="659"/>
+      <c r="B43" s="664"/>
       <c r="C43" s="70" t="s">
         <v>103</v>
       </c>
@@ -64299,7 +64340,7 @@
     </row>
     <row r="44" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="66"/>
-      <c r="B44" s="657" t="s">
+      <c r="B44" s="663" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="67" t="s">
@@ -64313,7 +64354,7 @@
     </row>
     <row r="45" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A45" s="66"/>
-      <c r="B45" s="658"/>
+      <c r="B45" s="665"/>
       <c r="C45" s="70" t="s">
         <v>104</v>
       </c>
@@ -64324,7 +64365,7 @@
     </row>
     <row r="46" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A46" s="66"/>
-      <c r="B46" s="658"/>
+      <c r="B46" s="665"/>
       <c r="C46" s="70" t="s">
         <v>105</v>
       </c>
@@ -64335,7 +64376,7 @@
     </row>
     <row r="47" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A47" s="66"/>
-      <c r="B47" s="658"/>
+      <c r="B47" s="665"/>
       <c r="C47" s="70" t="s">
         <v>106</v>
       </c>
@@ -64346,7 +64387,7 @@
     </row>
     <row r="48" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="66"/>
-      <c r="B48" s="659"/>
+      <c r="B48" s="664"/>
       <c r="C48" s="70" t="s">
         <v>107</v>
       </c>
@@ -64404,10 +64445,10 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="66"/>
       <c r="B53" s="73"/>
-      <c r="C53" s="657" t="s">
+      <c r="C53" s="663" t="s">
         <v>171</v>
       </c>
-      <c r="D53" s="657" t="s">
+      <c r="D53" s="663" t="s">
         <v>178</v>
       </c>
       <c r="E53" s="66" t="s">
@@ -64419,8 +64460,8 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="66"/>
       <c r="B54" s="73"/>
-      <c r="C54" s="658"/>
-      <c r="D54" s="658"/>
+      <c r="C54" s="665"/>
+      <c r="D54" s="665"/>
       <c r="E54" s="66" t="s">
         <v>182</v>
       </c>
@@ -64430,8 +64471,8 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="66"/>
       <c r="B55" s="73"/>
-      <c r="C55" s="658"/>
-      <c r="D55" s="659"/>
+      <c r="C55" s="665"/>
+      <c r="D55" s="664"/>
       <c r="E55" s="66" t="s">
         <v>183</v>
       </c>
@@ -64441,11 +64482,11 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="66"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="658"/>
-      <c r="D56" s="657" t="s">
+      <c r="C56" s="665"/>
+      <c r="D56" s="663" t="s">
         <v>179</v>
       </c>
-      <c r="E56" s="657" t="s">
+      <c r="E56" s="663" t="s">
         <v>184</v>
       </c>
       <c r="F56" s="66" t="s">
@@ -64456,9 +64497,9 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="66"/>
       <c r="B57" s="73"/>
-      <c r="C57" s="658"/>
-      <c r="D57" s="658"/>
-      <c r="E57" s="658"/>
+      <c r="C57" s="665"/>
+      <c r="D57" s="665"/>
+      <c r="E57" s="665"/>
       <c r="F57" s="66" t="s">
         <v>186</v>
       </c>
@@ -64467,9 +64508,9 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="66"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="658"/>
-      <c r="D58" s="658"/>
-      <c r="E58" s="659"/>
+      <c r="C58" s="665"/>
+      <c r="D58" s="665"/>
+      <c r="E58" s="664"/>
       <c r="F58" s="66" t="s">
         <v>183</v>
       </c>
@@ -64478,9 +64519,9 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="66"/>
       <c r="B59" s="73"/>
-      <c r="C59" s="658"/>
-      <c r="D59" s="658"/>
-      <c r="E59" s="657" t="s">
+      <c r="C59" s="665"/>
+      <c r="D59" s="665"/>
+      <c r="E59" s="663" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="66" t="s">
@@ -64491,9 +64532,9 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="66"/>
       <c r="B60" s="73"/>
-      <c r="C60" s="658"/>
-      <c r="D60" s="659"/>
-      <c r="E60" s="659"/>
+      <c r="C60" s="665"/>
+      <c r="D60" s="664"/>
+      <c r="E60" s="664"/>
       <c r="F60" s="66" t="s">
         <v>188</v>
       </c>
@@ -64502,8 +64543,8 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="66"/>
       <c r="B61" s="73"/>
-      <c r="C61" s="658"/>
-      <c r="D61" s="657" t="s">
+      <c r="C61" s="665"/>
+      <c r="D61" s="663" t="s">
         <v>180</v>
       </c>
       <c r="E61" s="66" t="s">
@@ -64515,8 +64556,8 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="66"/>
       <c r="B62" s="73"/>
-      <c r="C62" s="658"/>
-      <c r="D62" s="658"/>
+      <c r="C62" s="665"/>
+      <c r="D62" s="665"/>
       <c r="E62" s="66" t="s">
         <v>190</v>
       </c>
@@ -64526,8 +64567,8 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="66"/>
       <c r="B63" s="73"/>
-      <c r="C63" s="659"/>
-      <c r="D63" s="659"/>
+      <c r="C63" s="664"/>
+      <c r="D63" s="664"/>
       <c r="E63" s="66" t="s">
         <v>191</v>
       </c>
@@ -64540,7 +64581,7 @@
       <c r="C64" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="D64" s="657" t="s">
+      <c r="D64" s="663" t="s">
         <v>192</v>
       </c>
       <c r="E64" s="66" t="s">
@@ -64553,7 +64594,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="73"/>
       <c r="C65" s="70"/>
-      <c r="D65" s="659"/>
+      <c r="D65" s="664"/>
       <c r="E65" s="66" t="s">
         <v>194</v>
       </c>
@@ -64639,7 +64680,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="66"/>
-      <c r="B73" s="660" t="s">
+      <c r="B73" s="657" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="67" t="s">
@@ -64652,7 +64693,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="66"/>
-      <c r="B74" s="660"/>
+      <c r="B74" s="657"/>
       <c r="C74" s="70" t="s">
         <v>109</v>
       </c>
@@ -64663,7 +64704,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="66"/>
-      <c r="B75" s="660"/>
+      <c r="B75" s="657"/>
       <c r="C75" s="70" t="s">
         <v>110</v>
       </c>
@@ -64674,7 +64715,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="66"/>
-      <c r="B76" s="660"/>
+      <c r="B76" s="657"/>
       <c r="C76" s="70" t="s">
         <v>111</v>
       </c>
@@ -64685,7 +64726,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="66"/>
-      <c r="B77" s="660"/>
+      <c r="B77" s="657"/>
       <c r="C77" s="70" t="s">
         <v>112</v>
       </c>
@@ -64696,7 +64737,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="66"/>
-      <c r="B78" s="660"/>
+      <c r="B78" s="657"/>
       <c r="C78" s="70" t="s">
         <v>113</v>
       </c>
@@ -64707,7 +64748,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="66"/>
-      <c r="B79" s="660"/>
+      <c r="B79" s="657"/>
       <c r="C79" s="70" t="s">
         <v>114</v>
       </c>
@@ -64718,7 +64759,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="66"/>
-      <c r="B80" s="660"/>
+      <c r="B80" s="657"/>
       <c r="C80" s="70" t="s">
         <v>115</v>
       </c>
@@ -64740,6 +64781,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C21:C26"/>
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C27:C29"/>
@@ -64752,18 +64805,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C53:C63"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D56:D60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -65000,7 +65041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
@@ -66492,7 +66533,7 @@
         <v>200</v>
       </c>
       <c r="D69" s="524" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="E69" s="565"/>
       <c r="F69" s="424"/>
@@ -67883,7 +67924,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A130" s="568" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="B130" s="79"/>
       <c r="C130" s="77"/>
@@ -67900,16 +67941,16 @@
     </row>
     <row r="131" spans="1:14" s="570" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
       <c r="A131" s="480" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="B131" s="524" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="C131" s="524" t="s">
         <v>201</v>
       </c>
       <c r="D131" s="524" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="E131" s="565"/>
       <c r="F131" s="424"/>
@@ -67924,16 +67965,16 @@
     </row>
     <row r="132" spans="1:14" s="570" customFormat="1" ht="153" x14ac:dyDescent="0.15">
       <c r="A132" s="480" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="B132" s="524" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="C132" s="524" t="s">
         <v>201</v>
       </c>
       <c r="D132" s="524" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="E132" s="565"/>
       <c r="F132" s="424"/>
@@ -67948,16 +67989,16 @@
     </row>
     <row r="133" spans="1:14" s="570" customFormat="1" ht="127.5" x14ac:dyDescent="0.15">
       <c r="A133" s="480" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="B133" s="524" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="C133" s="524" t="s">
         <v>201</v>
       </c>
       <c r="D133" s="524" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="E133" s="565"/>
       <c r="F133" s="424"/>
@@ -67972,16 +68013,16 @@
     </row>
     <row r="134" spans="1:14" s="570" customFormat="1" ht="165.75" x14ac:dyDescent="0.15">
       <c r="A134" s="480" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="B134" s="524" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="C134" s="524" t="s">
         <v>201</v>
       </c>
       <c r="D134" s="524" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="E134" s="565"/>
       <c r="F134" s="424"/>
@@ -67996,16 +68037,16 @@
     </row>
     <row r="135" spans="1:14" s="570" customFormat="1" ht="191.25" x14ac:dyDescent="0.15">
       <c r="A135" s="480" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="B135" s="524" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="C135" s="524" t="s">
         <v>201</v>
       </c>
       <c r="D135" s="524" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="E135" s="565"/>
       <c r="F135" s="424"/>
@@ -68112,7 +68153,7 @@
     </row>
     <row r="4" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="485" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B4" s="486" t="s">
         <v>156</v>
@@ -68121,7 +68162,7 @@
         <v>200</v>
       </c>
       <c r="D4" s="487" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="E4" s="485"/>
       <c r="F4" s="488"/>
@@ -68133,7 +68174,7 @@
     </row>
     <row r="5" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="485" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="B5" s="486" t="s">
         <v>157</v>
@@ -68142,7 +68183,7 @@
         <v>200</v>
       </c>
       <c r="D5" s="487" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="E5" s="487"/>
       <c r="F5" s="488"/>
@@ -68154,7 +68195,7 @@
     </row>
     <row r="6" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="485" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B6" s="486" t="s">
         <v>155</v>
@@ -68163,7 +68204,7 @@
         <v>200</v>
       </c>
       <c r="D6" s="487" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E6" s="487"/>
       <c r="F6" s="488"/>
@@ -68175,7 +68216,7 @@
     </row>
     <row r="7" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="485" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B7" s="486" t="s">
         <v>247</v>
@@ -68184,7 +68225,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="487" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E7" s="487"/>
       <c r="F7" s="488"/>
@@ -68196,7 +68237,7 @@
     </row>
     <row r="8" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="485" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B8" s="486" t="s">
         <v>247</v>
@@ -68205,7 +68246,7 @@
         <v>200</v>
       </c>
       <c r="D8" s="487" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E8" s="487"/>
       <c r="F8" s="488"/>
@@ -68217,7 +68258,7 @@
     </row>
     <row r="9" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="485" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B9" s="486" t="s">
         <v>247</v>
@@ -68226,7 +68267,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="487" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E9" s="487"/>
       <c r="F9" s="488"/>
@@ -68238,7 +68279,7 @@
     </row>
     <row r="10" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="485" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B10" s="486" t="s">
         <v>248</v>
@@ -68247,7 +68288,7 @@
         <v>200</v>
       </c>
       <c r="D10" s="487" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="E10" s="487"/>
       <c r="F10" s="488"/>
@@ -68259,16 +68300,16 @@
     </row>
     <row r="11" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="485" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B11" s="486" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C11" s="487" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D11" s="487" t="s">
         <v>1873</v>
-      </c>
-      <c r="C11" s="487" t="s">
-        <v>1874</v>
-      </c>
-      <c r="D11" s="487" t="s">
-        <v>1875</v>
       </c>
       <c r="E11" s="487"/>
       <c r="F11" s="488"/>
@@ -68280,7 +68321,7 @@
     </row>
     <row r="12" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="485" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B12" s="486" t="s">
         <v>158</v>
@@ -68289,7 +68330,7 @@
         <v>201</v>
       </c>
       <c r="D12" s="487" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="E12" s="487"/>
       <c r="F12" s="488"/>
@@ -68301,7 +68342,7 @@
     </row>
     <row r="13" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="485" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B13" s="486" t="s">
         <v>159</v>
@@ -68310,7 +68351,7 @@
         <v>202</v>
       </c>
       <c r="D13" s="487" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E13" s="487"/>
       <c r="F13" s="488"/>
@@ -68322,7 +68363,7 @@
     </row>
     <row r="14" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="485" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B14" s="486" t="s">
         <v>160</v>
@@ -68331,7 +68372,7 @@
         <v>202</v>
       </c>
       <c r="D14" s="487" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="E14" s="487"/>
       <c r="F14" s="488"/>
@@ -68343,7 +68384,7 @@
     </row>
     <row r="15" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="485" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B15" s="486" t="s">
         <v>249</v>
@@ -68364,7 +68405,7 @@
     </row>
     <row r="16" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="485" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B16" s="486" t="s">
         <v>250</v>
@@ -68385,7 +68426,7 @@
     </row>
     <row r="17" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="485" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B17" s="486" t="s">
         <v>251</v>
@@ -68406,7 +68447,7 @@
     </row>
     <row r="18" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="485" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B18" s="486" t="s">
         <v>252</v>
@@ -68427,7 +68468,7 @@
     </row>
     <row r="19" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="485" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B19" s="486" t="s">
         <v>253</v>
@@ -68448,7 +68489,7 @@
     </row>
     <row r="20" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="485" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B20" s="486" t="s">
         <v>254</v>
@@ -68457,7 +68498,7 @@
         <v>201</v>
       </c>
       <c r="D20" s="487" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="E20" s="487"/>
       <c r="F20" s="488"/>
@@ -68469,7 +68510,7 @@
     </row>
     <row r="21" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="485" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B21" s="486" t="s">
         <v>254</v>
@@ -68478,7 +68519,7 @@
         <v>201</v>
       </c>
       <c r="D21" s="487" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="E21" s="487"/>
       <c r="F21" s="488"/>
@@ -68490,7 +68531,7 @@
     </row>
     <row r="22" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="485" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B22" s="486" t="s">
         <v>254</v>
@@ -68499,7 +68540,7 @@
         <v>201</v>
       </c>
       <c r="D22" s="487" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="E22" s="487"/>
       <c r="F22" s="488"/>
@@ -68511,7 +68552,7 @@
     </row>
     <row r="23" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="485" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B23" s="486" t="s">
         <v>255</v>
@@ -68520,7 +68561,7 @@
         <v>201</v>
       </c>
       <c r="D23" s="487" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="E23" s="487"/>
       <c r="F23" s="488"/>
@@ -68532,16 +68573,16 @@
     </row>
     <row r="24" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="485" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B24" s="486" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="C24" s="487" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="D24" s="487" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E24" s="487"/>
       <c r="F24" s="488"/>
@@ -68553,16 +68594,16 @@
     </row>
     <row r="25" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="485" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B25" s="492" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="C25" s="487" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="D25" s="487" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="E25" s="487"/>
       <c r="F25" s="488"/>
@@ -68576,7 +68617,7 @@
     </row>
     <row r="26" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="485" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B26" s="486" t="s">
         <v>418</v>
@@ -68585,7 +68626,7 @@
         <v>200</v>
       </c>
       <c r="D26" s="487" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="E26" s="487"/>
       <c r="F26" s="488"/>
@@ -68597,7 +68638,7 @@
     </row>
     <row r="27" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="485" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B27" s="486" t="s">
         <v>419</v>
@@ -68606,7 +68647,7 @@
         <v>200</v>
       </c>
       <c r="D27" s="487" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="E27" s="487"/>
       <c r="F27" s="488"/>
@@ -68618,7 +68659,7 @@
     </row>
     <row r="28" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="485" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B28" s="486" t="s">
         <v>420</v>
@@ -68640,7 +68681,7 @@
     <row r="29" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="485"/>
       <c r="B29" s="492" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="C29" s="487" t="s">
         <v>166</v>
@@ -68657,13 +68698,13 @@
     <row r="30" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="485"/>
       <c r="B30" s="492" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C30" s="487" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D30" s="487" t="s">
         <v>1890</v>
-      </c>
-      <c r="C30" s="487" t="s">
-        <v>1891</v>
-      </c>
-      <c r="D30" s="487" t="s">
-        <v>1892</v>
       </c>
       <c r="E30" s="487"/>
       <c r="F30" s="488"/>
@@ -68678,7 +68719,7 @@
     <row r="31" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="485"/>
       <c r="B31" s="486" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="C31" s="487" t="s">
         <v>166</v>
@@ -68709,7 +68750,7 @@
     </row>
     <row r="33" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="485" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B33" s="486" t="s">
         <v>164</v>
@@ -68730,7 +68771,7 @@
     </row>
     <row r="34" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="485" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="B34" s="486" t="s">
         <v>163</v>
@@ -68751,7 +68792,7 @@
     </row>
     <row r="35" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="485" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B35" s="486" t="s">
         <v>161</v>
@@ -68772,7 +68813,7 @@
     </row>
     <row r="36" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="485" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B36" s="486" t="s">
         <v>256</v>
@@ -68795,7 +68836,7 @@
     </row>
     <row r="37" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="485" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B37" s="486" t="s">
         <v>257</v>
@@ -68816,7 +68857,7 @@
     </row>
     <row r="38" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="485" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B38" s="486" t="s">
         <v>258</v>
@@ -68837,10 +68878,10 @@
     </row>
     <row r="39" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="485" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B39" s="486" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="C39" s="487" t="s">
         <v>200</v>
@@ -68858,10 +68899,10 @@
     </row>
     <row r="40" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="485" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B40" s="486" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="C40" s="487" t="s">
         <v>200</v>
@@ -68879,7 +68920,7 @@
     </row>
     <row r="41" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="485" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B41" s="486" t="s">
         <v>259</v>
@@ -68900,7 +68941,7 @@
     </row>
     <row r="42" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="485" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B42" s="486" t="s">
         <v>260</v>
@@ -68921,7 +68962,7 @@
     </row>
     <row r="43" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="485" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B43" s="486" t="s">
         <v>261</v>
@@ -68942,10 +68983,10 @@
     </row>
     <row r="44" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="485" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B44" s="486" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="C44" s="487" t="s">
         <v>200</v>
@@ -68963,10 +69004,10 @@
     </row>
     <row r="45" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="485" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B45" s="486" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="C45" s="487" t="s">
         <v>200</v>
@@ -68984,7 +69025,7 @@
     </row>
     <row r="46" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="485" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="B46" s="486" t="s">
         <v>262</v>
@@ -69005,7 +69046,7 @@
     </row>
     <row r="47" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="485" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="B47" s="486" t="s">
         <v>263</v>
@@ -69026,7 +69067,7 @@
     </row>
     <row r="48" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="485" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B48" s="486" t="s">
         <v>264</v>
@@ -69047,10 +69088,10 @@
     </row>
     <row r="49" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="485" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="B49" s="486" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C49" s="487" t="s">
         <v>200</v>
@@ -69068,10 +69109,10 @@
     </row>
     <row r="50" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="485" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="B50" s="486" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C50" s="487" t="s">
         <v>200</v>
@@ -69089,7 +69130,7 @@
     </row>
     <row r="51" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="485" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="B51" s="486" t="s">
         <v>265</v>
@@ -69110,7 +69151,7 @@
     </row>
     <row r="52" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="485" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="B52" s="486" t="s">
         <v>266</v>
@@ -69131,7 +69172,7 @@
     </row>
     <row r="53" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="485" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="B53" s="486" t="s">
         <v>267</v>
@@ -69152,10 +69193,10 @@
     </row>
     <row r="54" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="485" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="B54" s="486" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="C54" s="487" t="s">
         <v>200</v>
@@ -69173,10 +69214,10 @@
     </row>
     <row r="55" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="485" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="B55" s="486" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="C55" s="487" t="s">
         <v>200</v>
@@ -69194,7 +69235,7 @@
     </row>
     <row r="56" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="485" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="B56" s="486" t="s">
         <v>268</v>
@@ -69215,7 +69256,7 @@
     </row>
     <row r="57" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="485" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="B57" s="486" t="s">
         <v>269</v>
@@ -69236,7 +69277,7 @@
     </row>
     <row r="58" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="485" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B58" s="486" t="s">
         <v>270</v>
@@ -69257,10 +69298,10 @@
     </row>
     <row r="59" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="485" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="B59" s="486" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C59" s="487" t="s">
         <v>200</v>
@@ -69278,10 +69319,10 @@
     </row>
     <row r="60" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="485" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="B60" s="486" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C60" s="487" t="s">
         <v>200</v>
@@ -69299,7 +69340,7 @@
     </row>
     <row r="61" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="485" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B61" s="486" t="s">
         <v>271</v>
@@ -69320,7 +69361,7 @@
     </row>
     <row r="62" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="485" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="B62" s="486" t="s">
         <v>272</v>
@@ -69329,7 +69370,7 @@
         <v>200</v>
       </c>
       <c r="D62" s="487" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="E62" s="487"/>
       <c r="F62" s="488"/>
@@ -69341,10 +69382,10 @@
     </row>
     <row r="63" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="485" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="B63" s="486" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="C63" s="487" t="s">
         <v>200</v>
@@ -69362,10 +69403,10 @@
     </row>
     <row r="64" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="485" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B64" s="486" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="C64" s="487" t="s">
         <v>200</v>
@@ -69383,7 +69424,7 @@
     </row>
     <row r="65" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="485" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="B65" s="486" t="s">
         <v>273</v>
@@ -69404,7 +69445,7 @@
     </row>
     <row r="66" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="485" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="B66" s="486" t="s">
         <v>274</v>
@@ -69413,7 +69454,7 @@
         <v>200</v>
       </c>
       <c r="D66" s="487" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="E66" s="487"/>
       <c r="F66" s="493"/>
@@ -69425,16 +69466,16 @@
     </row>
     <row r="67" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="485" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B67" s="486" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="C67" s="487" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="D67" s="487" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="E67" s="487"/>
       <c r="F67" s="493"/>
@@ -69446,7 +69487,7 @@
     </row>
     <row r="68" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="485" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="B68" s="486" t="s">
         <v>275</v>
@@ -69467,7 +69508,7 @@
     </row>
     <row r="69" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="485" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="B69" s="486" t="s">
         <v>422</v>
@@ -69476,7 +69517,7 @@
         <v>200</v>
       </c>
       <c r="D69" s="487" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="E69" s="485"/>
       <c r="F69" s="488"/>
@@ -69488,16 +69529,16 @@
     </row>
     <row r="70" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="485" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="B70" s="486" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="C70" s="487" t="s">
         <v>200</v>
       </c>
       <c r="D70" s="487" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="F70" s="493"/>
       <c r="G70" s="493"/>
@@ -69507,16 +69548,16 @@
     </row>
     <row r="71" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="485" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="B71" s="486" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="C71" s="487" t="s">
         <v>200</v>
       </c>
       <c r="D71" s="487" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="F71" s="493"/>
       <c r="G71" s="493"/>
@@ -69526,16 +69567,16 @@
     </row>
     <row r="72" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="485" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B72" s="486" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C72" s="487" t="s">
         <v>200</v>
       </c>
       <c r="D72" s="487" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="F72" s="493"/>
       <c r="G72" s="493"/>
@@ -69545,16 +69586,16 @@
     </row>
     <row r="73" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="485" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="B73" s="486" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="C73" s="487" t="s">
         <v>200</v>
       </c>
       <c r="D73" s="487" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="F73" s="493"/>
       <c r="G73" s="493"/>
@@ -69564,16 +69605,16 @@
     </row>
     <row r="74" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="485" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="B74" s="486" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C74" s="487" t="s">
         <v>200</v>
       </c>
       <c r="D74" s="487" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="F74" s="493"/>
       <c r="G74" s="493"/>
@@ -69583,16 +69624,16 @@
     </row>
     <row r="75" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="485" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="B75" s="486" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="C75" s="487" t="s">
         <v>200</v>
       </c>
       <c r="D75" s="487" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="F75" s="493"/>
       <c r="G75" s="493"/>
@@ -69603,13 +69644,13 @@
     <row r="76" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="485"/>
       <c r="B76" s="486" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="C76" s="487" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="D76" s="487" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="E76" s="487"/>
       <c r="F76" s="488"/>
@@ -69644,10 +69685,10 @@
         <v>276</v>
       </c>
       <c r="C78" s="487" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="D78" s="487" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="E78" s="487"/>
       <c r="F78" s="488"/>
@@ -69663,10 +69704,10 @@
         <v>277</v>
       </c>
       <c r="C79" s="487" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D79" s="487" t="s">
         <v>1913</v>
-      </c>
-      <c r="D79" s="487" t="s">
-        <v>1915</v>
       </c>
       <c r="E79" s="487"/>
       <c r="F79" s="493"/>
@@ -69679,7 +69720,7 @@
     <row r="80" spans="1:11" s="489" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="485"/>
       <c r="B80" s="486" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="C80" s="487" t="s">
         <v>165</v>
@@ -69714,7 +69755,7 @@
     </row>
     <row r="82" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="494" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="B82" s="495"/>
       <c r="C82" s="495"/>
@@ -69729,16 +69770,16 @@
     </row>
     <row r="83" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="499" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="B83" s="500" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="C83" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D83" s="501" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="E83" s="502"/>
       <c r="F83" s="502"/>
@@ -69750,16 +69791,16 @@
     </row>
     <row r="84" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="499" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B84" s="500" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="C84" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D84" s="501" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="E84" s="502"/>
       <c r="F84" s="502"/>
@@ -69771,16 +69812,16 @@
     </row>
     <row r="85" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="499" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="B85" s="500" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="C85" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D85" s="501" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="E85" s="502"/>
       <c r="F85" s="502"/>
@@ -69792,16 +69833,16 @@
     </row>
     <row r="86" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="499" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B86" s="500" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="C86" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D86" s="501" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="E86" s="504"/>
       <c r="F86" s="504"/>
@@ -69813,16 +69854,16 @@
     </row>
     <row r="87" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="499" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="B87" s="500" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="C87" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D87" s="501" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="E87" s="504"/>
       <c r="F87" s="504"/>
@@ -69834,16 +69875,16 @@
     </row>
     <row r="88" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="499" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="B88" s="500" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="C88" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D88" s="501" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="E88" s="504"/>
       <c r="F88" s="504"/>
@@ -69855,16 +69896,16 @@
     </row>
     <row r="89" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="499" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="B89" s="500" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="C89" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D89" s="501" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="E89" s="504"/>
       <c r="F89" s="504"/>
@@ -69876,16 +69917,16 @@
     </row>
     <row r="90" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="499" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="B90" s="500" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="C90" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D90" s="501" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="E90" s="504"/>
       <c r="F90" s="504"/>
@@ -69897,16 +69938,16 @@
     </row>
     <row r="91" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="499" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B91" s="500" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="C91" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D91" s="505" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="E91" s="504"/>
       <c r="F91" s="504"/>
@@ -69918,16 +69959,16 @@
     </row>
     <row r="92" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="499" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="B92" s="500" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="C92" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D92" s="505" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="E92" s="504"/>
       <c r="F92" s="504"/>
@@ -69939,16 +69980,16 @@
     </row>
     <row r="93" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="499" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="B93" s="500" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="C93" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D93" s="505" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="E93" s="504"/>
       <c r="F93" s="504"/>
@@ -69960,16 +70001,16 @@
     </row>
     <row r="94" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="499" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="B94" s="500" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="C94" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D94" s="505" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="E94" s="504"/>
       <c r="F94" s="504"/>
@@ -69981,16 +70022,16 @@
     </row>
     <row r="95" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="499" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="B95" s="500" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="C95" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D95" s="505" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="E95" s="504"/>
       <c r="F95" s="504"/>
@@ -70002,16 +70043,16 @@
     </row>
     <row r="96" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="499" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="B96" s="500" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="C96" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D96" s="505" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="E96" s="502"/>
       <c r="F96" s="504"/>
@@ -70023,16 +70064,16 @@
     </row>
     <row r="97" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="499" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="B97" s="500" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="C97" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D97" s="505" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="E97" s="502"/>
       <c r="F97" s="504"/>
@@ -70044,16 +70085,16 @@
     </row>
     <row r="98" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="499" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="B98" s="500" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="C98" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D98" s="505" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="E98" s="502"/>
       <c r="F98" s="504"/>
@@ -70065,16 +70106,16 @@
     </row>
     <row r="99" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="499" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="B99" s="500" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="C99" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D99" s="505" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="E99" s="502"/>
       <c r="F99" s="504"/>
@@ -70086,16 +70127,16 @@
     </row>
     <row r="100" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="499" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B100" s="500" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="C100" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D100" s="505" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="E100" s="502"/>
       <c r="F100" s="504"/>
@@ -70107,16 +70148,16 @@
     </row>
     <row r="101" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="499" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="B101" s="500" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="C101" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D101" s="505" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="E101" s="504"/>
       <c r="F101" s="504"/>
@@ -70128,16 +70169,16 @@
     </row>
     <row r="102" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="499" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="B102" s="500" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="C102" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D102" s="505" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="E102" s="504"/>
       <c r="F102" s="504"/>
@@ -70149,16 +70190,16 @@
     </row>
     <row r="103" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="499" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="B103" s="500" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="C103" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D103" s="505" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="E103" s="504"/>
       <c r="F103" s="504"/>
@@ -70170,16 +70211,16 @@
     </row>
     <row r="104" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="499" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="B104" s="500" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="C104" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D104" s="505" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="E104" s="504"/>
       <c r="F104" s="504"/>
@@ -70191,16 +70232,16 @@
     </row>
     <row r="105" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="499" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="B105" s="500" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="C105" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D105" s="505" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="E105" s="504"/>
       <c r="F105" s="504"/>
@@ -70212,16 +70253,16 @@
     </row>
     <row r="106" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="499" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="B106" s="500" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C106" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D106" s="501" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="E106" s="501"/>
       <c r="F106" s="502"/>
@@ -70233,16 +70274,16 @@
     </row>
     <row r="107" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="499" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="B107" s="500" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="C107" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D107" s="501" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="E107" s="502"/>
       <c r="F107" s="502"/>
@@ -70254,16 +70295,16 @@
     </row>
     <row r="108" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="499" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="B108" s="500" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="C108" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D108" s="501" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="E108" s="502"/>
       <c r="F108" s="502"/>
@@ -70275,16 +70316,16 @@
     </row>
     <row r="109" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="499" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="B109" s="500" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="C109" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D109" s="501" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="E109" s="502"/>
       <c r="F109" s="502"/>
@@ -70296,16 +70337,16 @@
     </row>
     <row r="110" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="499" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="B110" s="500" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="C110" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D110" s="501" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="E110" s="502"/>
       <c r="F110" s="502"/>
@@ -70317,16 +70358,16 @@
     </row>
     <row r="111" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="499" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="B111" s="500" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="C111" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D111" s="501" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="E111" s="502"/>
       <c r="F111" s="502"/>
@@ -70338,16 +70379,16 @@
     </row>
     <row r="112" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="499" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="B112" s="500" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="C112" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D112" s="501" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="E112" s="502"/>
       <c r="F112" s="502"/>
@@ -70359,16 +70400,16 @@
     </row>
     <row r="113" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="499" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B113" s="500" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="C113" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D113" s="501" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="E113" s="502"/>
       <c r="F113" s="502"/>
@@ -70380,16 +70421,16 @@
     </row>
     <row r="114" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="499" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="B114" s="500" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="C114" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D114" s="501" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="E114" s="502"/>
       <c r="F114" s="502"/>
@@ -70401,16 +70442,16 @@
     </row>
     <row r="115" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="499" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="B115" s="500" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="C115" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D115" s="501" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="E115" s="502"/>
       <c r="F115" s="502"/>
@@ -70422,16 +70463,16 @@
     </row>
     <row r="116" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="499" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="B116" s="500" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="C116" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D116" s="501" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="E116" s="502"/>
       <c r="F116" s="502"/>
@@ -70443,16 +70484,16 @@
     </row>
     <row r="117" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="499" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="B117" s="500" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="C117" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D117" s="501" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="E117" s="502"/>
       <c r="F117" s="502"/>
@@ -70464,16 +70505,16 @@
     </row>
     <row r="118" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="499" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B118" s="500" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="C118" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D118" s="501" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="E118" s="502"/>
       <c r="F118" s="502"/>
@@ -70485,16 +70526,16 @@
     </row>
     <row r="119" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="499" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="B119" s="500" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="C119" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D119" s="501" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="E119" s="502"/>
       <c r="F119" s="502"/>
@@ -70506,16 +70547,16 @@
     </row>
     <row r="120" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="499" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B120" s="500" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="C120" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D120" s="501" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="E120" s="502"/>
       <c r="F120" s="502"/>
@@ -70527,16 +70568,16 @@
     </row>
     <row r="121" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="499" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="B121" s="500" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="C121" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D121" s="501" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="E121" s="502"/>
       <c r="F121" s="502"/>
@@ -70548,16 +70589,16 @@
     </row>
     <row r="122" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="499" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="B122" s="500" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="C122" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D122" s="501" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="E122" s="502"/>
       <c r="F122" s="502"/>
@@ -70569,16 +70610,16 @@
     </row>
     <row r="123" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="499" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="B123" s="500" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="C123" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D123" s="501" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="E123" s="502"/>
       <c r="F123" s="502"/>
@@ -70590,16 +70631,16 @@
     </row>
     <row r="124" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="499" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="B124" s="500" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="C124" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D124" s="501" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="E124" s="502"/>
       <c r="F124" s="502"/>
@@ -70611,16 +70652,16 @@
     </row>
     <row r="125" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="499" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B125" s="500" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="C125" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D125" s="501" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="E125" s="502"/>
       <c r="F125" s="502"/>
@@ -70632,16 +70673,16 @@
     </row>
     <row r="126" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="499" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="B126" s="500" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="C126" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D126" s="501" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="E126" s="502"/>
       <c r="F126" s="502"/>
@@ -70653,16 +70694,16 @@
     </row>
     <row r="127" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="499" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="B127" s="500" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="C127" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D127" s="501" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="E127" s="502"/>
       <c r="F127" s="502"/>
@@ -70674,16 +70715,16 @@
     </row>
     <row r="128" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="499" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="B128" s="500" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="C128" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D128" s="501" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="E128" s="502"/>
       <c r="F128" s="502"/>
@@ -70695,16 +70736,16 @@
     </row>
     <row r="129" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="499" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="B129" s="500" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="C129" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D129" s="501" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="E129" s="502"/>
       <c r="F129" s="502"/>
@@ -70716,16 +70757,16 @@
     </row>
     <row r="130" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="499" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="B130" s="500" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="C130" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D130" s="501" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="E130" s="502"/>
       <c r="F130" s="502"/>
@@ -70737,7 +70778,7 @@
     </row>
     <row r="131" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="506" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B131" s="495"/>
       <c r="C131" s="495"/>
@@ -70752,16 +70793,16 @@
     </row>
     <row r="132" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="499" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="B132" s="500" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="C132" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D132" s="501" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="E132" s="502"/>
       <c r="F132" s="502"/>
@@ -70773,16 +70814,16 @@
     </row>
     <row r="133" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="499" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="B133" s="500" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="C133" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D133" s="501" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="E133" s="502"/>
       <c r="F133" s="502"/>
@@ -70794,16 +70835,16 @@
     </row>
     <row r="134" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="499" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B134" s="500" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="C134" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D134" s="501" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="E134" s="502"/>
       <c r="F134" s="502"/>
@@ -70815,16 +70856,16 @@
     </row>
     <row r="135" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="499" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="B135" s="500" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="C135" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D135" s="501" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="E135" s="502"/>
       <c r="F135" s="502"/>
@@ -70836,16 +70877,16 @@
     </row>
     <row r="136" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="499" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="B136" s="500" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="C136" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D136" s="501" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="E136" s="502"/>
       <c r="F136" s="502"/>
@@ -70857,16 +70898,16 @@
     </row>
     <row r="137" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="499" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="B137" s="500" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="C137" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D137" s="501" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="E137" s="502"/>
       <c r="F137" s="502"/>
@@ -70878,16 +70919,16 @@
     </row>
     <row r="138" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="499" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="B138" s="500" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="C138" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D138" s="501" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="E138" s="502"/>
       <c r="F138" s="502"/>
@@ -70899,16 +70940,16 @@
     </row>
     <row r="139" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="499" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="B139" s="500" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="C139" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D139" s="501" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="E139" s="502"/>
       <c r="F139" s="502"/>
@@ -70920,16 +70961,16 @@
     </row>
     <row r="140" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="499" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="B140" s="500" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="C140" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D140" s="501" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="E140" s="502"/>
       <c r="F140" s="502"/>
@@ -70941,16 +70982,16 @@
     </row>
     <row r="141" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="499" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="B141" s="500" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="C141" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D141" s="501" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="E141" s="502"/>
       <c r="F141" s="502"/>
@@ -70962,16 +71003,16 @@
     </row>
     <row r="142" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="499" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="B142" s="500" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="C142" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D142" s="501" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="E142" s="502"/>
       <c r="F142" s="502"/>
@@ -70983,16 +71024,16 @@
     </row>
     <row r="143" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="499" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="B143" s="500" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C143" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D143" s="501" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="E143" s="502"/>
       <c r="F143" s="502"/>
@@ -71004,16 +71045,16 @@
     </row>
     <row r="144" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="499" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="B144" s="500" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="C144" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D144" s="501" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="E144" s="502"/>
       <c r="F144" s="502"/>
@@ -71025,16 +71066,16 @@
     </row>
     <row r="145" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="499" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="B145" s="500" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="C145" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D145" s="501" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="E145" s="502"/>
       <c r="F145" s="502"/>
@@ -71046,16 +71087,16 @@
     </row>
     <row r="146" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="499" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="B146" s="500" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="C146" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D146" s="501" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="E146" s="502"/>
       <c r="F146" s="502"/>
@@ -71067,16 +71108,16 @@
     </row>
     <row r="147" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="499" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="B147" s="500" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="C147" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D147" s="501" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E147" s="502"/>
       <c r="F147" s="502"/>
@@ -71088,16 +71129,16 @@
     </row>
     <row r="148" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="499" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="B148" s="500" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="C148" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D148" s="501" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="E148" s="502"/>
       <c r="F148" s="502"/>
@@ -71109,16 +71150,16 @@
     </row>
     <row r="149" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="499" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B149" s="500" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="C149" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D149" s="501" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="E149" s="502"/>
       <c r="F149" s="502"/>
@@ -71130,16 +71171,16 @@
     </row>
     <row r="150" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="499" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="B150" s="500" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C150" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D150" s="501" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="E150" s="502"/>
       <c r="F150" s="502"/>
@@ -71151,16 +71192,16 @@
     </row>
     <row r="151" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="499" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="B151" s="500" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="C151" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D151" s="501" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="E151" s="502"/>
       <c r="F151" s="502"/>
@@ -71172,16 +71213,16 @@
     </row>
     <row r="152" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="499" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="B152" s="500" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C152" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D152" s="501" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="E152" s="502"/>
       <c r="F152" s="502"/>
@@ -71193,16 +71234,16 @@
     </row>
     <row r="153" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="499" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="B153" s="500" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="C153" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D153" s="501" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="E153" s="502"/>
       <c r="F153" s="502"/>
@@ -71214,16 +71255,16 @@
     </row>
     <row r="154" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="499" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="B154" s="500" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="C154" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D154" s="501" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="E154" s="502"/>
       <c r="F154" s="502"/>
@@ -71235,16 +71276,16 @@
     </row>
     <row r="155" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="499" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="B155" s="500" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="C155" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D155" s="501" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="E155" s="502"/>
       <c r="F155" s="502"/>
@@ -71256,16 +71297,16 @@
     </row>
     <row r="156" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="499" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="B156" s="500" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="C156" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D156" s="501" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="E156" s="502"/>
       <c r="F156" s="502"/>
@@ -71277,16 +71318,16 @@
     </row>
     <row r="157" spans="1:11" s="527" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="522" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B157" s="523" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="C157" s="524" t="s">
         <v>200</v>
       </c>
       <c r="D157" s="525" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="E157" s="526"/>
       <c r="F157" s="526"/>
@@ -71298,16 +71339,16 @@
     </row>
     <row r="158" spans="1:11" s="503" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="499" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="B158" s="500" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="C158" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D158" s="501" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="E158" s="502"/>
       <c r="F158" s="502"/>
@@ -71319,10 +71360,10 @@
     </row>
     <row r="159" spans="1:11" s="513" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="518" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B159" s="509" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="C159" s="509"/>
       <c r="D159" s="509"/>
@@ -71336,16 +71377,16 @@
     </row>
     <row r="160" spans="1:11" s="513" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="514" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B160" s="515" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C160" s="516" t="s">
         <v>528</v>
       </c>
       <c r="D160" s="514" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E160" s="517"/>
       <c r="F160" s="517"/>
@@ -71357,7 +71398,7 @@
     </row>
     <row r="161" spans="1:11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="472" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="B161" s="473"/>
       <c r="C161" s="473"/>
@@ -71372,16 +71413,16 @@
     </row>
     <row r="162" spans="1:11" s="410" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="502" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B162" s="500" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="C162" s="438" t="s">
         <v>528</v>
       </c>
       <c r="D162" s="519" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="E162" s="520"/>
       <c r="F162" s="520"/>
@@ -71393,16 +71434,16 @@
     </row>
     <row r="163" spans="1:11" s="410" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="502" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="B163" s="500" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="C163" s="438" t="s">
         <v>201</v>
       </c>
       <c r="D163" s="519" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E163" s="520"/>
       <c r="F163" s="520"/>
@@ -71414,16 +71455,16 @@
     </row>
     <row r="164" spans="1:11" s="410" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="502" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="B164" s="500" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="C164" s="438" t="s">
         <v>201</v>
       </c>
       <c r="D164" s="519" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="E164" s="520"/>
       <c r="F164" s="520"/>
@@ -71435,16 +71476,16 @@
     </row>
     <row r="165" spans="1:11" s="410" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="502" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B165" s="500" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C165" s="438" t="s">
         <v>201</v>
       </c>
       <c r="D165" s="519" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="E165" s="520"/>
       <c r="F165" s="520"/>
@@ -71456,16 +71497,16 @@
     </row>
     <row r="166" spans="1:11" s="410" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="502" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="B166" s="500" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="C166" s="438" t="s">
         <v>201</v>
       </c>
       <c r="D166" s="519" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="E166" s="520"/>
       <c r="F166" s="520"/>
@@ -71477,16 +71518,16 @@
     </row>
     <row r="167" spans="1:11" s="410" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="502" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B167" s="500" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="C167" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D167" s="519" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="E167" s="502"/>
       <c r="F167" s="502"/>
@@ -71498,16 +71539,16 @@
     </row>
     <row r="168" spans="1:11" s="410" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="502" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B168" s="500" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="C168" s="438" t="s">
         <v>200</v>
       </c>
       <c r="D168" s="519" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="E168" s="502"/>
       <c r="F168" s="502"/>
@@ -71519,16 +71560,16 @@
     </row>
     <row r="169" spans="1:11" s="410" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="502" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="B169" s="500" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="C169" s="438" t="s">
         <v>201</v>
       </c>
       <c r="D169" s="519" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="E169" s="520"/>
       <c r="F169" s="520"/>
@@ -71540,16 +71581,16 @@
     </row>
     <row r="170" spans="1:11" s="410" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="502" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="B170" s="500" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="C170" s="438" t="s">
         <v>201</v>
       </c>
       <c r="D170" s="519" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E170" s="520"/>
       <c r="F170" s="520"/>
@@ -71629,7 +71670,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="103" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
@@ -71645,7 +71686,7 @@
     </row>
     <row r="3" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="563" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="B3" s="176" t="s">
         <v>506</v>
@@ -71667,7 +71708,7 @@
     </row>
     <row r="4" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="563" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="B4" s="176" t="s">
         <v>504</v>
@@ -71689,7 +71730,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="103" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="B5" s="103"/>
       <c r="C5" s="103"/>
@@ -71705,7 +71746,7 @@
     </row>
     <row r="6" spans="1:12" s="552" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="564" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="B6" s="547" t="s">
         <v>508</v>
@@ -71726,7 +71767,7 @@
     </row>
     <row r="7" spans="1:12" s="552" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="564" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B7" s="547" t="s">
         <v>512</v>
@@ -71747,16 +71788,16 @@
     </row>
     <row r="8" spans="1:12" s="552" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="564" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="B8" s="547" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="C8" s="548" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D8" s="553" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="E8" s="232"/>
       <c r="F8" s="232"/>
@@ -71768,13 +71809,13 @@
     </row>
     <row r="9" spans="1:12" s="552" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="564" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="B9" s="547" t="s">
         <v>517</v>
       </c>
       <c r="C9" s="548" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="D9" s="553" t="s">
         <v>527</v>
@@ -71789,16 +71830,16 @@
     </row>
     <row r="10" spans="1:12" s="552" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="564" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="B10" s="547" t="s">
         <v>518</v>
       </c>
       <c r="C10" s="548" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D10" s="553" t="s">
         <v>1530</v>
-      </c>
-      <c r="D10" s="553" t="s">
-        <v>1532</v>
       </c>
       <c r="E10" s="232"/>
       <c r="F10" s="232"/>
@@ -71810,7 +71851,7 @@
     </row>
     <row r="11" spans="1:12" s="552" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="564" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="B11" s="547" t="s">
         <v>514</v>
@@ -71831,7 +71872,7 @@
     </row>
     <row r="12" spans="1:12" s="552" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="564" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="B12" s="547" t="s">
         <v>510</v>
@@ -71852,7 +71893,7 @@
     </row>
     <row r="13" spans="1:12" s="552" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="564" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="B13" s="547" t="s">
         <v>516</v>
@@ -71873,16 +71914,16 @@
     </row>
     <row r="14" spans="1:12" s="552" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="564" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="B14" s="547" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C14" s="548" t="s">
         <v>1528</v>
       </c>
-      <c r="C14" s="548" t="s">
-        <v>1530</v>
-      </c>
       <c r="D14" s="553" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E14" s="232"/>
       <c r="F14" s="232"/>
@@ -71894,7 +71935,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="103" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B15" s="103"/>
       <c r="C15" s="103"/>
@@ -71909,16 +71950,16 @@
     </row>
     <row r="16" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A16" s="555" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="B16" s="556" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="C16" s="425" t="s">
         <v>200</v>
       </c>
       <c r="D16" s="557" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="E16" s="426"/>
       <c r="F16" s="426"/>
@@ -71930,16 +71971,16 @@
     </row>
     <row r="17" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A17" s="555" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="B17" s="556" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="C17" s="425" t="s">
         <v>200</v>
       </c>
       <c r="D17" s="557" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="E17" s="426"/>
       <c r="F17" s="426"/>
@@ -71951,16 +71992,16 @@
     </row>
     <row r="18" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A18" s="555" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="B18" s="556" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="C18" s="425" t="s">
         <v>200</v>
       </c>
       <c r="D18" s="557" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="E18" s="426"/>
       <c r="F18" s="426"/>
@@ -71972,16 +72013,16 @@
     </row>
     <row r="19" spans="1:11" s="562" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A19" s="558" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B19" s="559" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="C19" s="425" t="s">
         <v>200</v>
       </c>
       <c r="D19" s="560" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="E19" s="525"/>
       <c r="F19" s="525"/>
@@ -72873,7 +72914,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="167" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B3" s="122" t="s">
         <v>410</v>
@@ -72893,7 +72934,7 @@
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="167" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="B4" s="122" t="s">
         <v>411</v>
@@ -72913,7 +72954,7 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="167" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B5" s="122" t="s">
         <v>313</v>
@@ -72933,7 +72974,7 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="167" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B6" s="122" t="s">
         <v>314</v>
@@ -72953,7 +72994,7 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="167" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B7" s="125" t="s">
         <v>315</v>
@@ -72973,7 +73014,7 @@
     </row>
     <row r="8" spans="1:11" s="200" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="193" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B8" s="194" t="s">
         <v>316</v>
@@ -73009,7 +73050,7 @@
     </row>
     <row r="10" spans="1:11" s="434" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="427" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B10" s="428" t="s">
         <v>317</v>
@@ -73026,7 +73067,7 @@
       <c r="H10" s="431"/>
       <c r="I10" s="432"/>
       <c r="J10" s="435" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="K10" s="433"/>
     </row>
@@ -73046,7 +73087,7 @@
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="167" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B12" s="129" t="s">
         <v>318</v>
@@ -73080,7 +73121,7 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="167" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B14" s="130" t="s">
         <v>319</v>
@@ -73100,7 +73141,7 @@
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="167" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B15" s="130" t="s">
         <v>321</v>
@@ -73120,7 +73161,7 @@
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="167" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B16" s="130" t="s">
         <v>323</v>
@@ -73140,7 +73181,7 @@
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="167" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B17" s="130" t="s">
         <v>325</v>
